--- a/基于高斯分布的多任务优化/MGDMTO加上相似性判断/MGDMTO_s_CR0.7/MGDMTO显著性分析/CEC/Plot/CEC17_20_temp.xlsx
+++ b/基于高斯分布的多任务优化/MGDMTO加上相似性判断/MGDMTO_s_CR0.7/MGDMTO显著性分析/CEC/Plot/CEC17_20_temp.xlsx
@@ -8,16 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="MGDMTO_s_CR0.7" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MFEA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MFEA_AKT" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MFDE" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MTGA" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="MKTDE" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="AEMTO" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="RLMFEA" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="EMTO_AI" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="BLKT_DE" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MMLMTO" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="MGDMTO_s_CR0.2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MGDMTO_s_CR0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MGDMTO_s_CR0.4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MGDMTO_s_CR0.5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="MGDMTO_s_CR0.6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MGDMTO_s_CR0.1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="MGDMTO_s_CR0.8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="MGDMTO_s_CR0.9" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1166,1460 +1164,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>P1-T1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>P1-T2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P2-T1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P2-T2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P3-T1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>P3-T2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P4-T1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>P4-T2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>P5-T1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P5-T2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>P6-T1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>P6-T2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>P7-T1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>P7-T2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>P8-T1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>P8-T2</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>P9-T1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>P9-T2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>30.0059874624588</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>29384.37357473246</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>21.35899259002054</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>29535.31558850007</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>21.43402893411706</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>17503.45623543565</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>29233.34359456458</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>119347.9860094544</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>21.36100311709796</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3422333473.48107</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>21.36685241769556</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>36.46327417325811</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>3394423400.799513</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>29522.23434020684</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>30.9053336526649</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>77.57202089423612</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>29426.98735178831</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>17496.56039062557</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1.9565705773013</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1489.15714688478</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>15.72132642756589</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>2519.091533099106</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>21.25761689772011</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>13125.92325380956</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>1675.96612567731</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>4862.280999521411</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>17.47095269457706</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>65601108.7777181</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>20.40244575536078</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>22.49982726702569</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>11086754.80677584</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>1746.452601743672</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>3.279419938505912</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>45.24647767833803</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>3590.506496590725</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>11133.71316494665</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>1.041438868245864</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>466.4819721669993</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>6.417161603455119</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>529.8572664360386</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>21.22798365356933</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>11139.57017740322</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>525.6564082487881</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>272.4314140768299</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>7.56042782674852</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>272693.8943166838</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>17.34940932311005</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>11.29337099943035</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>83651.3567728645</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>541.3412766726595</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>1.131355048229563</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>21.53817131389088</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>860.951518956076</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>6624.972655149631</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0.6738909625097956</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>321.7641766652304</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>3.408085523488245</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>344.906776148617</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>21.2000628299412</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>9923.237122170012</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>407.2021356626815</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>30.97405266114788</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>3.292491776199883</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>2496.193902500197</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>11.34679887213238</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>5.922748324591833</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>3902.309120901242</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>394.0000363996953</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0.7468215464990815</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>10.31164132476227</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>514.791892521461</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>3611.38861516032</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0.1568109117126476</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>160.6383852547338</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1.387822802140385</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>186.742934430993</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>21.19494436006681</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>8803.279455041938</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>258.1917156436452</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>3.106834916232498</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1.18717312177598</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>175.2102460617008</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>6.44141289085455</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>3.675042737847486</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>531.3681115227751</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>225.6459617861671</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0.2909949301513611</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>5.543816128577542</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>431.1809728098551</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>2548.922600832055</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>0.02322594110190819</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>110.5970121839784</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.2411142844974471</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>110.3478357514125</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>21.18718931245293</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>7756.360198710375</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>144.3668000098285</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.2298735765224103</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.1747766829621109</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>53.08391285379079</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>3.306386815221967</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>2.675523978511147</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>92.28250352544273</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>122.1870840592259</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0.08929370847475399</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>3.188345058234789</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>336.2568879233862</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>2150.260273021242</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>0.003683738410933031</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>101.2674539726965</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>0.04449306517038656</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>99.52009256502475</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>21.17481879075715</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>6595.641954767133</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>104.3470462825073</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0.02528232311457769</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.03187179694700181</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>47.2622395379709</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>1.325276916452815</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>2.229462766625752</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>51.70547188373487</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>99.65435386587238</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0.02201603609545082</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>1.936383481576328</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>192.8175093886505</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>1882.031096122692</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>0.0006690616771110639</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>98.0778822813915</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>0.01224363899282889</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>95.48284463099957</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>21.1377813941241</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>5376.817934846283</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>96.51031040840067</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0.003204546509038618</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0.008395478808589344</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>46.48608221524582</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0.4167752357676269</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>2.015793021410898</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>48.78468867292565</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>96.34765505180535</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0.005719728159442447</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>1.240586442561021</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>126.870126055468</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>1610.863571719035</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0.0001386985404255821</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>97.35211365665572</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0.0037316266503533</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>94.15448299959063</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>21.07282132989117</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>4466.380026207325</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>95.17225124999926</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0.0003744571782265443</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.002537229056922493</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>46.26057865198523</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0.1456374034570184</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>1.910377702008296</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>48.15108701906828</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>95.79970117912593</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0.001843677198639038</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>0.8152012923683032</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>107.6082581685199</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>1416.825796821601</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2.848197218085676e-05</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>96.63177248929614</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0.001185153923505992</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>93.53424976538528</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>20.96310652498386</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>3740.433565681471</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>94.78968977824903</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>4.45607620781966e-05</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.0009168870935110541</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>46.14803389841516</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>0.02161256079889447</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>1.864626529060657</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>47.88067465441827</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>95.37512114014834</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0.0008114993143104895</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>0.5707410690112085</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>99.94707448254705</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>1234.607323204447</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>9.316771370874536e-06</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>96.37980852948066</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0.0003989906212051568</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>93.33047447048605</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>20.82350590065234</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>2998.840621629869</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>94.54721455304353</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>5.588635518363598e-06</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.0003662166189549213</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>46.05670689532133</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>0.00365822648952833</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>1.845128382371846</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>47.70605983013201</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>95.07407665133981</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>0.0005626221818276322</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>0.443065353089897</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>98.5635396230476</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>1125.000449885302</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>P1-T1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>P1-T2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>P2-T1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P2-T2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P3-T1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>P3-T2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>P4-T1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>P4-T2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>P5-T1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>P5-T2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>P6-T1</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>P6-T2</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>P7-T1</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>P7-T2</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>P8-T1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>P8-T2</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>P9-T1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>P9-T2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>30.34123732701714</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>29991.12560213073</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>21.39275737366335</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>30111.27119774414</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>21.44753608257301</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>17784.11458815823</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>30606.86498816067</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>121670.9570254118</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>21.37687372315032</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>3474226657.401165</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>21.38599618565611</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>36.73304591596182</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>3645257267.454339</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>29705.23186916319</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>30.84358968301759</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>78.70470120031966</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>30084.98729586213</v>
-      </c>
-      <c r="R2" s="2" t="n">
-        <v>17331.51478776936</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0.777253125315448</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>402.8889837154948</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>3.834286911191272</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>413.9545969568561</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>21.25769365684247</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>13688.65784516161</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>465.0734070153466</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>420.677277246955</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>3.817175370788353</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>2706.314878066374</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>3.608483832657169</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>3.686496478742834</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>3454.367101973891</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>415.4018210800747</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>1.070277180119501</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>18.19852324515728</v>
-      </c>
-      <c r="Q3" s="2" t="n">
-        <v>796.5819449919312</v>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>14182.44924503466</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0.03587122877849558</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>99.2898661613596</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0.2624265984157022</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>22.86243309849072</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>21.15802799775458</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>11517.52305654419</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>320.6888245631715</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>9.572423857914117</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.5565356661652288</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>62.83522885162646</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0.02328040072054967</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0.2038056029603377</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>80.58132071585104</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>83.70434563628542</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0.3156561270325844</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>9.062951351849319</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>447.9956711250358</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>12466.8695228571</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0.002361612323507393</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>15.17131756879209</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.00304493017061036</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0.01258005166480896</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>20.78606365090513</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>9649.845857129141</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>2.177458807315984</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0.1792041708779215</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.0438979950279017</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>54.14510750990808</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0.0001862350584309465</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0.01042749131822921</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>52.15743669418411</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>1.18975779234056</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0.03089813972561508</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>4.943194127948797</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>405.8277757858075</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>10733.93339456088</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0.001198350124547376</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>3.805543716919373</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>4.335005991136972e-05</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>3.054886982963486e-06</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>20.31348959317949</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>7996.270485892453</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.01991702458030537</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.004478775149912328</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.006440315362487414</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>52.81645793363187</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>1.85372076607256e-06</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0.0005187118430453571</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>50.66253172170973</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0.7727793441975143</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0.003093902263970068</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>3.001094892235574</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>358.623526660136</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>9166.453101352365</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>0.001083246430718561</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>2.635472705093328</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>7.337715095386462e-07</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>6.946711650357428e-10</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>20.16556516692897</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>6539.383792991871</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.0003800378835044545</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0.0001431373844269399</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.00107980742923468</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>51.11005140172224</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>1.543036474889921e-08</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>9.064201632706196e-06</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>49.0242849128802</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0.763137155992698</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0.0005429015447734627</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>2.225653660719437</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>214.8498509583168</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>7770.800552119609</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>0.001069875883889171</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>2.528676839042981</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1.413014354412212e-08</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>3.47633033470629e-13</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>20.14033300697263</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>5541.661066524115</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>8.135728698732692e-06</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>4.811092097633416e-06</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.0001966579405228153</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>47.34865357319891</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>7.9609060084825e-11</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>5.790785924849236e-10</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>48.53595631114202</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0.7628098767871307</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0.000279451765815771</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>1.87306808927354</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>109.7248203259931</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>6602.050844094208</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>0.00106837518987601</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>2.411037332647874</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>5.672132097345184e-10</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>20.12546758645123</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>4656.393328418927</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>1.880034637006626e-07</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1.620249551311802e-07</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>3.456969943274047e-05</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>47.20716862101233</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>3.726500589588492e-13</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>4.973799150320701e-15</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>48.36580527816288</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0.7628020473451583</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0.0002499480659406861</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>1.696511943089539</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>78.20166610983239</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>5552.231047066593</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0.001068202399780386</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>2.388773091729198</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>8.957193505428526e-11</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>20.11873163968188</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>4216.801537845573</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>4.389103599085805e-09</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>5.849842820169943e-09</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>6.60060111750127e-06</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>47.10215092700754</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>4.994523313447038e-14</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>48.23800963877745</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0.7628017827301309</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0.0002469074635274016</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>1.612925981447092</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>73.86123315041374</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>4771.869120635664</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>0.001068182408909764</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>2.387918684509725</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1.445418599625252e-11</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>20.11600417759319</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>4148.539963121352</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>9.850869749546594e-11</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>1.960564990946907e-10</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1.136186959360686e-06</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>47.00232521334064</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>5.299464570877414e-15</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>48.1033372579637</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0.7628017760605397</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0.0002465785759099059</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>1.572362319745088</v>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>73.02839458896233</v>
-      </c>
-      <c r="R11" s="2" t="n">
-        <v>4367.096960224249</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>0.001068180419020951</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>2.387901845945737</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>2.420315799630165e-12</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>20.11402569385714</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>4144.988389807457</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>2.477070400649003e-12</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>6.480033012570722e-12</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2.030919358908534e-07</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>46.90342570753019</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>3.286260152890464e-15</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>47.93333965010343</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0.7628017758504406</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>0.0002465394417475434</v>
-      </c>
-      <c r="P12" s="2" t="n">
-        <v>1.55431437590157</v>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>72.62983020142245</v>
-      </c>
-      <c r="R12" s="2" t="n">
-        <v>4262.790265567731</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2728,618 +1272,618 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29.43430397251433</v>
+        <v>32.18750801160613</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>28937.13174048382</v>
+        <v>30713.95423950105</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21.38296247685759</v>
+        <v>21.39622574733285</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>29856.38289409074</v>
+        <v>30785.66378067166</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.44891999954418</v>
+        <v>21.46780898941714</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17665.18559928188</v>
+        <v>17967.55852806994</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29729.85687350206</v>
+        <v>30669.21670078825</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>119600.1903664815</v>
+        <v>125163.348407499</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.34709347542367</v>
+        <v>21.38536168200927</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3500138461.657799</v>
+        <v>3618078887.946717</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>21.35457346544348</v>
+        <v>21.39008919565011</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>36.96400439739933</v>
+        <v>38.04527047399726</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3452009348.085694</v>
+        <v>3776544351.820468</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>29766.6800945724</v>
+        <v>31579.7425876327</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30.97644873571672</v>
+        <v>32.21115023819294</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>78.45845100102234</v>
+        <v>79.30171016864168</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>29745.49187464935</v>
+        <v>30561.48260197484</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>17458.95351168941</v>
+        <v>18039.90023908424</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>0.8504871906170558</v>
+        <v>0.2801921622729596</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>346.3950802624374</v>
+        <v>264.0796255847987</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>4.334493241955506</v>
+        <v>2.125249553947402</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>366.6780370722254</v>
+        <v>256.999224760687</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>20.65986697822884</v>
+        <v>21.25057198265054</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>5075.396598496801</v>
+        <v>4299.899990528667</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>609.5920503894841</v>
+        <v>448.4923334937767</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>164.8020883515906</v>
+        <v>90.53037495485914</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>4.657631320210239</v>
+        <v>2.430858645221646</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>10427.73152701962</v>
+        <v>30254.1149930425</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>20.56399775681583</v>
+        <v>5.586380576644142</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>21.5651764363605</v>
+        <v>3.929499335883095</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>14629.03468520464</v>
+        <v>47720.14056553962</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>430.5764126700217</v>
+        <v>354.5583124201966</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1.058665845905358</v>
+        <v>0.5693286154064342</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>26.92666699338182</v>
+        <v>13.76914400379411</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>702.7063575731978</v>
+        <v>551.5353763703918</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5308.21092518393</v>
+        <v>4215.637427689183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.3439782087848942</v>
+        <v>0.1462962712914523</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>217.5670211115219</v>
+        <v>54.2541897019014</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3.363627129536066</v>
+        <v>1.574709678096102</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>230.3770210878833</v>
+        <v>54.35217693366685</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>20.4185618941162</v>
+        <v>21.2321047810443</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4043.042890546804</v>
+        <v>4251.666099477265</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>487.7034788022828</v>
+        <v>220.8976714135253</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>8.639376921481283</v>
+        <v>75.29904300254887</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.402794856008827</v>
+        <v>1.623869304064797</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>363.8018321627529</v>
+        <v>28934.60078573042</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>20.32137417240589</v>
+        <v>4.499800053208213</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>21.5334268739482</v>
+        <v>3.165449541990058</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>835.4332604792738</v>
+        <v>2523.789275481015</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>274.808141863208</v>
+        <v>112.3637965180862</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.4779501813811285</v>
+        <v>0.3834101312149645</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>25.77133557291042</v>
+        <v>12.05216602862521</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>567.8576023922911</v>
+        <v>332.9682636394446</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4264.597362512797</v>
+        <v>4156.010632890785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.2080423572958376</v>
+        <v>0.1357773720827847</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>172.5056096054669</v>
+        <v>51.67114542979973</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3.181819956983911</v>
+        <v>1.553411843906313</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>182.6920510809481</v>
+        <v>51.01909788665296</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>20.28353780918286</v>
+        <v>21.22388316345452</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3833.203582281685</v>
+        <v>4250.933110353561</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>444.8651870821742</v>
+        <v>211.6714011503436</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2.105791923184066</v>
+        <v>75.13757715937791</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>2.184484772316852</v>
+        <v>1.587628167982814</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>243.52227544887</v>
+        <v>28906.39176744597</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>20.16611080838728</v>
+        <v>4.476894180242235</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>21.52484700049519</v>
+        <v>3.162935930635641</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>455.3710044896014</v>
+        <v>2444.191705806606</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>225.2776627489576</v>
+        <v>100.1052051765118</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.2444263652364632</v>
+        <v>0.3713775039507118</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>25.76110452169067</v>
+        <v>12.00865996062175</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>521.7762916631987</v>
+        <v>311.5962509816526</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3969.436203479762</v>
+        <v>4154.715867451428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>0.1463430823766379</v>
+        <v>0.1333587331850024</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>147.2377329476818</v>
+        <v>50.92750916947721</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>3.091020190873221</v>
+        <v>1.548354796838106</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>159.1523070093178</v>
+        <v>50.66016755476027</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>20.20769742657225</v>
+        <v>21.21693764338938</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3699.439470323814</v>
+        <v>4250.903640588303</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>422.5693096715676</v>
+        <v>210.3545391813066</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.8476656441862782</v>
+        <v>75.13015345711865</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>2.088366223033732</v>
+        <v>1.580224782173528</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>216.1738466044233</v>
+        <v>28902.63998872696</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>20.08456708304136</v>
+        <v>4.473982753817343</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>21.5187723641058</v>
+        <v>3.162933162115461</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>360.2827482685194</v>
+        <v>2429.285098400464</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>197.8061084145548</v>
+        <v>99.26040207264943</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.1678731092141523</v>
+        <v>0.3689322946084304</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>25.30829180560415</v>
+        <v>12.00762703800683</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>495.3835528143566</v>
+        <v>309.5154749210094</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3770.157386053997</v>
+        <v>4154.625399838923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>0.1094008401015564</v>
+        <v>0.1325836408130477</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>134.1958965936865</v>
+        <v>50.63513602339305</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3.051486179187407</v>
+        <v>1.546722282181604</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>145.4898912314831</v>
+        <v>50.60410397376777</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>20.15502973374772</v>
+        <v>21.21179628977613</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3579.75443056371</v>
+        <v>4250.902135820894</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>405.3574193989984</v>
+        <v>210.0704491334638</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.4799905153751695</v>
+        <v>75.12933896617632</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>2.021002291902247</v>
+        <v>1.577146063273889</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>203.8052495694727</v>
+        <v>28901.51148225203</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>20.03481452527365</v>
+        <v>4.473623909751365</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>21.51538546266221</v>
+        <v>3.162933127206143</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>308.7226243342001</v>
+        <v>2423.630587019014</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>182.6030016128367</v>
+        <v>99.06275343200724</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.1252999356453805</v>
+        <v>0.3681789834176804</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>25.16495760870955</v>
+        <v>12.00761600110483</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>481.4950262327562</v>
+        <v>308.5595274520418</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3633.543948739254</v>
+        <v>4154.612813164502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>0.08433776214024899</v>
+        <v>0.1323074872016602</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>126.9850022025678</v>
+        <v>50.54240414308324</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>3.022814555900804</v>
+        <v>1.54605962592963</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>137.4107990371426</v>
+        <v>50.58397318794973</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>20.13118665926624</v>
+        <v>21.20535277639985</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3459.887588728054</v>
+        <v>4250.901991240953</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>397.7980937651213</v>
+        <v>209.9750221623746</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.3054271520498839</v>
+        <v>75.1291751583463</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1.973679829711152</v>
+        <v>1.575575538615428</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>190.0621119508629</v>
+        <v>28901.01260327125</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>19.99977898886748</v>
+        <v>4.473498086309451</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>21.51462658073959</v>
+        <v>3.162933124594596</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>272.0940005294837</v>
+        <v>2418.899652994823</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>172.9689637703073</v>
+        <v>98.94934839282091</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.09840014445657787</v>
+        <v>0.3679235001629117</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>25.00862066213145</v>
+        <v>12.00761516506534</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>472.588163088617</v>
+        <v>308.2086333444641</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3483.417562069087</v>
+        <v>4154.609997801674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0.07132701290795254</v>
+        <v>0.1321753652887843</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>118.7270195952993</v>
+        <v>50.49585463416079</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>2.999554910770878</v>
+        <v>1.545755655812546</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>131.1158718581602</v>
+        <v>50.5776956482949</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>20.11035680221151</v>
+        <v>21.19997093715324</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3390.859441194497</v>
+        <v>4250.90196492035</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>390.095039002821</v>
+        <v>209.9350619245538</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.2200047739410418</v>
+        <v>75.1291462145567</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1.947834028558388</v>
+        <v>1.574774447069206</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>179.6497191056677</v>
+        <v>28900.73839561418</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>19.97770777738449</v>
+        <v>4.473457467734442</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>21.51269068691512</v>
+        <v>3.162933124227121</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>248.5973332025952</v>
+        <v>2414.840753659346</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>166.7841656495445</v>
+        <v>98.85139244482724</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.07821346958961035</v>
+        <v>0.3678055371713352</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>24.99126793845099</v>
+        <v>12.00761484676624</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>467.6484803856895</v>
+        <v>308.0020337551325</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3318.817466808355</v>
+        <v>4154.609109436856</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>0.06100715429265278</v>
+        <v>0.1321149787613017</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>114.0927893287536</v>
+        <v>50.47113957918953</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>2.983069399358768</v>
+        <v>1.54565827641972</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>127.5251415153801</v>
+        <v>50.5750197936277</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>20.08801093999916</v>
+        <v>21.19477171408247</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3267.64565033487</v>
+        <v>4250.901959458988</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>386.3945868005827</v>
+        <v>209.916552800146</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.161438866377993</v>
+        <v>75.12913970643442</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1.936767426554209</v>
+        <v>1.574271148695092</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>173.7172052272418</v>
+        <v>28900.51468282933</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>19.95485644448546</v>
+        <v>4.473447784609728</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>21.51141994263725</v>
+        <v>3.162933124196414</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>235.6962882398378</v>
+        <v>2412.997636390473</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>162.165435003575</v>
+        <v>98.75953701931472</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0670691658986164</v>
+        <v>0.3677278382215022</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>24.97896876556106</v>
+        <v>12.0076147135757</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>463.9540470516973</v>
+        <v>307.8083103850798</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3221.342354079662</v>
+        <v>4154.608935675938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>0.05389059743143054</v>
+        <v>0.1320771839308359</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>109.9895414147809</v>
+        <v>50.45545776843868</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2.973590697073818</v>
+        <v>1.545583483921475</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>124.7161866333639</v>
+        <v>50.57297223395376</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>20.07512014652048</v>
+        <v>21.19310182310752</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3225.397514944655</v>
+        <v>4250.901958417361</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>383.0027557711326</v>
+        <v>209.9050272548627</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.1358418714461083</v>
+        <v>75.12913664208546</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1.852593049200205</v>
+        <v>1.574113807956731</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>168.8877959818197</v>
+        <v>28900.40249147428</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>19.93976548861493</v>
+        <v>4.473445322811409</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>21.51116823557404</v>
+        <v>3.162933124188704</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>223.5729123788526</v>
+        <v>2411.677860801326</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>159.5675513069944</v>
+        <v>98.70112759258031</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.05829936738466112</v>
+        <v>0.367685986277189</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>24.97240015023648</v>
+        <v>12.00761462093677</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>460.6279601868872</v>
+        <v>307.7273345251279</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3123.460359689895</v>
+        <v>4154.608878766084</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>0.04840042271366492</v>
+        <v>0.1320578239545116</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>108.0729585816398</v>
+        <v>50.44422887398537</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>2.965453325174477</v>
+        <v>1.54549923003663</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>122.9367249804623</v>
+        <v>50.5717750044186</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>20.06790391511436</v>
+        <v>21.19235805099128</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3174.655613462756</v>
+        <v>4250.901958230579</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>381.4384668254672</v>
+        <v>209.8985977398008</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.1149712767032806</v>
+        <v>75.12913530143365</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1.807951167086066</v>
+        <v>1.57403992785392</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>164.8626032024935</v>
+        <v>28900.34209088119</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>19.92979896467022</v>
+        <v>4.473444676277219</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>21.51000821304264</v>
+        <v>3.162933124188573</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>207.3816542511394</v>
+        <v>2410.858336116466</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>157.2399144323603</v>
+        <v>98.65217786040246</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.05202758167444256</v>
+        <v>0.3676634929939352</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>24.96868695161798</v>
+        <v>12.00761455911282</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>458.1027431070954</v>
+        <v>307.6824850689906</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>3033.259622254681</v>
+        <v>4154.608860168903</v>
       </c>
     </row>
   </sheetData>
@@ -3455,618 +1999,618 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29.61906003207385</v>
+        <v>31.29163698617272</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>29108.73202952899</v>
+        <v>31292.0105830097</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21.36174262231193</v>
+        <v>21.41883736104992</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>29706.94929626489</v>
+        <v>30450.29455441136</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.44031246079136</v>
+        <v>21.45362645273037</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17548.35020662058</v>
+        <v>18036.52323433408</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29955.83056197898</v>
+        <v>31209.31218580221</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>120629.903521237</v>
+        <v>127541.6688501409</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.34717318897494</v>
+        <v>21.39199407055722</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3448085625.963331</v>
+        <v>3819586458.891769</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>21.35066756180391</v>
+        <v>21.37936359651273</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>36.81155565659924</v>
+        <v>37.66413583567815</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3428882304.372951</v>
+        <v>3729028006.564336</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>29327.27538610463</v>
+        <v>30096.63332470095</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30.74652019931169</v>
+        <v>31.66094064475608</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>78.40915603489569</v>
+        <v>79.56617065099337</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>29268.86112553228</v>
+        <v>31139.24850377224</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>17596.20459241963</v>
+        <v>17985.64411263785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1.145090342949939</v>
+        <v>0.1609605625499372</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>510.7088748310849</v>
+        <v>266.5166691259081</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>8.32784976898666</v>
+        <v>1.126587225573844</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>569.5078347090138</v>
+        <v>141.2308854296943</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>20.73698323403248</v>
+        <v>21.25669209143439</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7915.430469707198</v>
+        <v>5188.197236950097</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>940.4532627753269</v>
+        <v>437.3038657906143</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>1460.12863456262</v>
+        <v>3.556753899856569</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>7.746981844898232</v>
+        <v>1.383558657213468</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>129539.1482437697</v>
+        <v>351.8062161864876</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>10.89940856905745</v>
+        <v>2.937734019443925</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>11.34309793665004</v>
+        <v>1.988012478003625</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>266565.2108985978</v>
+        <v>484.6774173220505</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>642.6401270060679</v>
+        <v>371.8060267718183</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1.352219782759831</v>
+        <v>0.2983098021200252</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>28.39507267692526</v>
+        <v>9.656244330824538</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1373.38433865636</v>
+        <v>438.6434553725556</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>7917.685478223621</v>
+        <v>5230.311609649602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.9357709717017847</v>
+        <v>0.002574556080178477</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>325.4197787184804</v>
+        <v>13.41719252446329</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>7.286924622122318</v>
+        <v>0.03919685284832287</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>426.4702948648443</v>
+        <v>0.6334626382558317</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>20.48509167685172</v>
+        <v>21.22868253743917</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5726.480463647595</v>
+        <v>3553.334371539132</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>766.2310457267157</v>
+        <v>390.8447926950132</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>179.7881585227107</v>
+        <v>0.3595605795166111</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>4.693802444399394</v>
+        <v>0.0289297417335729</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>5159.26405001288</v>
+        <v>89.71368904887277</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>7.787877569042434</v>
+        <v>0.3865700697893987</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>8.033095077637691</v>
+        <v>0.2820409302506727</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>12726.20357015297</v>
+        <v>162.4656737049369</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>370.1099460665106</v>
+        <v>147.4673039716903</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1.028559819455879</v>
+        <v>0.01633793518325359</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>26.40126595295986</v>
+        <v>4.157017175659791</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1088.259527637915</v>
+        <v>389.6379655831581</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>5638.417690878647</v>
+        <v>3437.729577720614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.5978794624341515</v>
+        <v>0.001175055446523865</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>248.9323348303702</v>
+        <v>12.48119942066075</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>7.058044074561528</v>
+        <v>0.03455264763714239</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>382.7380365914532</v>
+        <v>0.3494070509745678</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>20.33734319707928</v>
+        <v>21.21729211489308</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4670.160786002063</v>
+        <v>3551.023467244161</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>684.5412692747491</v>
+        <v>367.6526027405265</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>36.57168335659788</v>
+        <v>0.3574797007972099</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>3.758124688276617</v>
+        <v>0.01557013739808442</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>1107.901719390111</v>
+        <v>89.00474083762508</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>7.425384216566473</v>
+        <v>0.3631285156943165</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>7.799577204636839</v>
+        <v>0.1992207411130129</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>2234.882265127367</v>
+        <v>150.2602486412505</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>299.8442875863719</v>
+        <v>74.38522572685336</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.7123490631620725</v>
+        <v>0.0128946992321662</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>26.21106068680363</v>
+        <v>3.604325915283863</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1021.559183515611</v>
+        <v>377.2821994949184</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>4713.974919812276</v>
+        <v>3436.647422967843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>0.3901354782506805</v>
+        <v>0.001066470174524163</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>221.0793879510869</v>
+        <v>11.30685725925095</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>6.929408446726035</v>
+        <v>0.03451304994501235</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>357.1835001246527</v>
+        <v>0.3491412003747027</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>20.25063533778381</v>
+        <v>21.21063568111121</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4230.290887154277</v>
+        <v>3550.996052286002</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>655.148861618895</v>
+        <v>342.9560549886174</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>10.90605704496641</v>
+        <v>0.3574666216271556</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>3.393311704737309</v>
+        <v>0.01510544035596609</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>553.3320720340802</v>
+        <v>88.92342132305043</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>7.242478297219017</v>
+        <v>0.3630218291583667</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>7.740625400468143</v>
+        <v>0.1937120203949801</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>969.276644755579</v>
+        <v>146.5450278441409</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>269.9900779303131</v>
+        <v>51.35911096620295</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.4763845689701954</v>
+        <v>0.01269642640230337</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>26.04429018099838</v>
+        <v>3.545830949738789</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>994.9268585688847</v>
+        <v>337.6632119149186</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4345.366048171102</v>
+        <v>3436.620260773433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>0.2719178142853529</v>
+        <v>0.00105011123431152</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>200.8496379219164</v>
+        <v>2.290428636617245</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>6.848908628163914</v>
+        <v>0.03451297988116039</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>341.5257611882406</v>
+        <v>0.3491404984863197</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>20.2061069885063</v>
+        <v>21.19948191533874</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4063.287288408815</v>
+        <v>3550.995284250362</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>637.2189066663351</v>
+        <v>321.9541113464332</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>4.122524152378654</v>
+        <v>0.3574664880214568</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>3.244038122417729</v>
+        <v>0.01509990251156201</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>398.6353851758769</v>
+        <v>88.90266845991724</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>7.148329526701073</v>
+        <v>0.3630214644373468</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>7.720309928545206</v>
+        <v>0.1935333644282802</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>626.3468369372173</v>
+        <v>144.4906310222765</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>254.7416902308387</v>
+        <v>50.99301722254845</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.3326771827137234</v>
+        <v>0.01267519432174057</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>25.81435739089784</v>
+        <v>3.540236144411535</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>976.3708912031216</v>
+        <v>323.1553058453108</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4128.51151996091</v>
+        <v>3436.619279883073</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>0.2043243395080927</v>
+        <v>0.001047907836742901</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>186.2283637088407</v>
+        <v>2.268472512792478</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>6.795556040597444</v>
+        <v>0.03451297977057897</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>330.8916578137665</v>
+        <v>0.3491404970033535</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>20.17744783795059</v>
+        <v>21.1919172504537</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3902.831463833362</v>
+        <v>3550.995275559453</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>625.9224792633099</v>
+        <v>294.0638747793479</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>2.055053933361636</v>
+        <v>0.3574664865782247</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>3.124295698346657</v>
+        <v>0.01509986929561468</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>329.0220344832177</v>
+        <v>88.89419496012042</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>7.077677983508471</v>
+        <v>0.3630214623635198</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>7.683235169475756</v>
+        <v>0.1935158777631725</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>455.7672827297796</v>
+        <v>143.3527252215273</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>241.7753061708281</v>
+        <v>45.53190423854887</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.2477682183868281</v>
+        <v>0.0126718337091125</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>25.74970285913497</v>
+        <v>3.539672108982959</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>963.4233084996507</v>
+        <v>272.3087149748869</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3929.442090400698</v>
+        <v>3436.619167622917</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0.1620630497118632</v>
+        <v>0.001047450572891277</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>179.3555615825621</v>
+        <v>2.268452656572479</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>6.756786965050936</v>
+        <v>0.03451297976985209</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>323.7768288922115</v>
+        <v>0.3491404969940881</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>20.15501640335777</v>
+        <v>21.17513062847887</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3775.182527691438</v>
+        <v>3550.995275307485</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>617.9771902619683</v>
+        <v>237.6755818400792</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1.192424532497451</v>
+        <v>0.357466486562428</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>3.066301324402929</v>
+        <v>0.01509986911659166</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>286.2074211873062</v>
+        <v>88.88781866177789</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>7.014269432147558</v>
+        <v>0.363021462273812</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>7.640927157462634</v>
+        <v>0.1935145658857396</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>368.3143070983476</v>
+        <v>142.378439890709</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>235.9142237348984</v>
+        <v>42.29360530344078</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.1903661041379096</v>
+        <v>0.01267085613822528</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>25.74053568941794</v>
+        <v>3.539635549296065</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>954.4418674862835</v>
+        <v>209.049389329649</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3790.386845390983</v>
+        <v>3436.619161184014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>0.133473525487744</v>
+        <v>0.001047424529621851</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>174.2861812794406</v>
+        <v>2.268452614515355</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>6.722543163320271</v>
+        <v>0.03451297976984759</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>317.3186277265321</v>
+        <v>0.349140496994077</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>20.12656059554075</v>
+        <v>21.17016366142758</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3642.751193713119</v>
+        <v>3550.99527526479</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>614.4895452557636</v>
+        <v>208.9616682137995</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.7465830923601087</v>
+        <v>0.3574664865622309</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>2.997197061559377</v>
+        <v>0.01509986911599634</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>246.7391444872763</v>
+        <v>88.88339456516672</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>6.976203313181255</v>
+        <v>0.3630214622605402</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>7.599288192500008</v>
+        <v>0.1935145314856856</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>330.335928714797</v>
+        <v>141.6036090684911</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>229.3302850833485</v>
+        <v>38.47955570147818</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.1488833357303734</v>
+        <v>0.01267057591029713</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>25.40457089768278</v>
+        <v>3.539634918164252</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>948.5546632033601</v>
+        <v>177.9886229740701</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3679.870004597657</v>
+        <v>3436.619160134059</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>0.1114976939262958</v>
+        <v>0.001047422165733747</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>170.1280929674066</v>
+        <v>2.268452609576291</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.695932768391042</v>
+        <v>0.03451297976984747</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>313.9112579172045</v>
+        <v>0.3491404969940733</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>20.10893703328217</v>
+        <v>21.16784793340342</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3536.081875667131</v>
+        <v>3550.995275257044</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>610.3868502631959</v>
+        <v>163.6556027486243</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.5413255330111547</v>
+        <v>0.3574664865622292</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>2.950534845516452</v>
+        <v>0.01509986911599421</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>224.4298975242492</v>
+        <v>88.88147152914411</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>6.949915788995189</v>
+        <v>0.3630214622592363</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>7.580775343333185</v>
+        <v>0.1935145163503212</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>293.7923656427723</v>
+        <v>140.7677057076045</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>225.699572449462</v>
+        <v>30.14420739101389</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.1268047363697444</v>
+        <v>0.01267053651463279</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>25.37322685874006</v>
+        <v>3.539634874924967</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>944.8246980031049</v>
+        <v>148.4620688060952</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3618.266500099255</v>
+        <v>3436.619159993159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>0.09402113806436692</v>
+        <v>0.001047421917684436</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>167.5183553651704</v>
+        <v>2.268452609393429</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>6.681472613713428</v>
+        <v>0.03451297976984747</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>311.4058729020609</v>
+        <v>0.3491404969940728</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>20.09715703555271</v>
+        <v>21.16752275953835</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3417.224858192122</v>
+        <v>3550.995275254698</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>607.6514059701007</v>
+        <v>148.5181625902256</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.394941666834164</v>
+        <v>0.3574664865622292</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>2.916275940516609</v>
+        <v>0.0150998691159909</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>213.6033194787339</v>
+        <v>88.88088458069245</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>6.930825532618256</v>
+        <v>0.3630214622591333</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>7.572609477266893</v>
+        <v>0.1935143333927655</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>268.0807959543877</v>
+        <v>139.9450120749335</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>223.5873531286333</v>
+        <v>30.02813620137903</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.1085301661521336</v>
+        <v>0.01267053205523153</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>25.355185742471</v>
+        <v>3.539634872146849</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>941.8985641530184</v>
+        <v>111.4029305287964</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>3515.069404712751</v>
+        <v>3436.619159970571</v>
       </c>
     </row>
   </sheetData>
@@ -4182,618 +2726,618 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>30.40965795534233</v>
+        <v>30.90052931355925</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>29902.17246051214</v>
+        <v>30498.92814640214</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21.36115038306777</v>
+        <v>21.39574359748349</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>29075.94832849346</v>
+        <v>30308.87298357271</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.42986998212472</v>
+        <v>21.44762034616997</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17474.34235116763</v>
+        <v>17937.20143791112</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29361.80065311954</v>
+        <v>31094.58784194857</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>118549.9194057545</v>
+        <v>127100.2227695825</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.38112819035887</v>
+        <v>21.36020420245895</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3524945056.567737</v>
+        <v>3768234963.927837</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>21.36959190446542</v>
+        <v>21.40372612925729</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>36.65198775627842</v>
+        <v>37.44737529556208</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3540236430.721754</v>
+        <v>3748223619.946182</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>29955.86132818509</v>
+        <v>31204.05883491377</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30.53980076439001</v>
+        <v>31.57534375418356</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>77.50026554000659</v>
+        <v>79.89809946001441</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>29266.25984650225</v>
+        <v>30595.67864563244</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>17396.48934430329</v>
+        <v>18114.65848437441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1.12120885173231</v>
+        <v>0.3721268085231696</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>577.5822989676329</v>
+        <v>360.9458444019785</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>7.17316129165533</v>
+        <v>2.152789141842404</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>585.5858523059338</v>
+        <v>299.9828476992461</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>21.25066455043417</v>
+        <v>21.24392299668176</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>15077.94344463296</v>
+        <v>9443.556470041538</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>629.6888713301362</v>
+        <v>451.8646178734079</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>601.0121413379518</v>
+        <v>12.01281587117626</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>8.652189069173584</v>
+        <v>2.273575713865566</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>382113.3314502605</v>
+        <v>670.9643978305349</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>16.00637059583675</v>
+        <v>3.715915549182388</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>15.32778261176963</v>
+        <v>1.678206625696788</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>150953.8540955928</v>
+        <v>833.6262007211574</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>620.6517080048193</v>
+        <v>382.5382553703164</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1.182440189678501</v>
+        <v>0.5710745215106502</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>26.01390270738058</v>
+        <v>11.50964180017428</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>752.581777803645</v>
+        <v>456.6735831619163</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>12659.10715481243</v>
+        <v>9787.509603826657</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.2583600697351315</v>
+        <v>0.002256586318515249</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>344.1717436113022</v>
+        <v>0.9931179477685875</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1.92811156754323</v>
+        <v>0.003382435701620157</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>323.1126575141459</v>
+        <v>0.007784808562485365</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>21.22530615180532</v>
+        <v>21.21314292316452</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>14069.66174181219</v>
+        <v>5076.137346648718</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>427.7238127623624</v>
+        <v>407.9687132556635</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9.080661779649965</v>
+        <v>0.00127319269576735</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>2.23036348300463</v>
+        <v>0.01186262482600767</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>546.7856136504137</v>
+        <v>87.49548807690267</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>5.05369394881738</v>
+        <v>0.03973560298421643</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.260958678283321</v>
+        <v>0.06554360285112087</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>825.5697626490098</v>
+        <v>61.92917519430402</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>363.6113653202771</v>
+        <v>48.74126430480256</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.3988643386073463</v>
+        <v>0.004833802421082693</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.397090013127533</v>
+        <v>2.37376560789031</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>477.3832120631989</v>
+        <v>404.7840759721596</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7307.740890762677</v>
+        <v>5267.846350558981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.01809995317580159</v>
+        <v>0.0005530924837487146</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>26.49100630776227</v>
+        <v>0.1096980565441329</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.11886220815738</v>
+        <v>1.101330124019621e-05</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4.553253464718005</v>
+        <v>7.884300809261428e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>21.21296169313425</v>
+        <v>21.19481359678637</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>13321.28940597569</v>
+        <v>2940.630110462908</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>219.5429623362052</v>
+        <v>385.5319443857367</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.2362116333202303</v>
+        <v>1.171022020884136e-07</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2294962027068876</v>
+        <v>0.000116974357951675</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>104.1108298586294</v>
+        <v>85.63694167238943</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.716134827336992</v>
+        <v>0.0003509349488504121</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.7692443528905942</v>
+        <v>0.003903254255420071</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>176.8698641758746</v>
+        <v>58.99284510677665</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>178.6322114143965</v>
+        <v>35.96780971834808</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.03065735256104681</v>
+        <v>0.0001197558765688352</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.401924210465203</v>
+        <v>1.082208979150934</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>438.7362049812581</v>
+        <v>388.8878229536473</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>4615.81400047443</v>
+        <v>3103.579329955213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>0.001451777713422671</v>
+        <v>0.0005300120899096225</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.47720389511752</v>
+        <v>0.09949645410897005</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.007466629534192008</v>
+        <v>3.438815759556253e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.120802213953829</v>
+        <v>8.390917590380317e-13</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>21.20130002804353</v>
+        <v>21.18967030472169</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>12744.08816237851</v>
+        <v>2921.396279367922</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>86.57488338652362</v>
+        <v>379.2389819838493</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.004003435202209299</v>
+        <v>1.317772373434053e-11</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.0526818723792697</v>
+        <v>1.242082536467848e-06</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>89.0664633741515</v>
+        <v>85.35936540988287</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.5326558856587241</v>
+        <v>3.523565561843375e-06</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.2728070255844308</v>
+        <v>0.0002097019748295755</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>111.4243763175094</v>
+        <v>58.41393785471713</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>26.29973362846049</v>
+        <v>33.23209595466918</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.003271204887280484</v>
+        <v>5.628770753206558e-05</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.217211528302908</v>
+        <v>0.9042332879855408</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>374.1429859138661</v>
+        <v>381.0971958731876</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4113.327005689755</v>
+        <v>3012.513600287358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>0.0006088456103820139</v>
+        <v>0.0005293019582088795</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.152222548436916</v>
+        <v>0.09949590574120719</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.0003950393419526854</v>
+        <v>2.264402295300745e-10</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.0003049608142232429</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>21.1976185637708</v>
+        <v>21.18756794074435</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>11883.83434341043</v>
+        <v>2921.352253675596</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>79.59168417882688</v>
+        <v>372.4536299156377</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>5.868444111219063e-05</v>
+        <v>4.366386034966764e-15</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.04008468454789815</v>
+        <v>1.302638882686817e-08</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>87.72132036459502</v>
+        <v>85.31771360610847</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.2512102138535302</v>
+        <v>3.419682146343917e-08</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.1070742400120691</v>
+        <v>3.380191794851347e-06</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>98.32312608103615</v>
+        <v>58.15401017652187</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>22.57740504136648</v>
+        <v>33.23209442421081</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.001437053928688422</v>
+        <v>5.368356168624633e-05</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.801281381495848</v>
+        <v>0.8764387048076553</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>167.2759852041275</v>
+        <v>378.9486957215775</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4098.752141445527</v>
+        <v>3012.403523020547</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>0.0005753056851036146</v>
+        <v>0.0005292832998990009</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.094857427187852</v>
+        <v>0.0994959057093323</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2.63759632351146e-05</v>
+        <v>2.230008770235751e-12</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.314230110042539e-06</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>21.19392120776131</v>
+        <v>21.18387243585647</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>10873.55047341183</v>
+        <v>2921.352152080445</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>79.05479410668643</v>
+        <v>368.0599694741391</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>1.732537939507123e-06</v>
+        <v>1.685520248420767e-15</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.03873106712822786</v>
+        <v>1.348075725123484e-10</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>87.45925883191889</v>
+        <v>85.30473791386162</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.1713397786156432</v>
+        <v>1.278592135870819e-09</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.06721574600152588</v>
+        <v>1.114604704829011e-12</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>94.04948029934566</v>
+        <v>58.08863859441112</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>22.52365560338109</v>
+        <v>25.11422570798806</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.001324930755416032</v>
+        <v>5.343064533288959e-05</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.671815255247027</v>
+        <v>0.8727068789977215</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>98.79986586141155</v>
+        <v>373.2545440986759</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>4098.280181128492</v>
+        <v>3012.402914487137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0.0005747427498005683</v>
+        <v>0.0005292823932843028</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.094457877239692</v>
+        <v>0.09949590570932898</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1.731467375846544e-06</v>
+        <v>2.815525590449397e-14</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>5.623466374042133e-09</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>21.19151945211274</v>
+        <v>21.18317075822231</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>10132.95468118949</v>
+        <v>2921.35215141819</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>78.9960429510713</v>
+        <v>364.0482165564571</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>4.798680468298928e-08</v>
+        <v>1.676799265859879e-15</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.03854846003057976</v>
+        <v>1.42117428936217e-12</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>87.3322551828696</v>
+        <v>85.29961271071292</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.1494329722328773</v>
+        <v>9.498338412091318e-10</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.05079023010307561</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>91.75282294347971</v>
+        <v>58.05185958864196</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>22.52015893549382</v>
+        <v>24.64565572903622</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.001315735160877296</v>
+        <v>5.334961759864883e-05</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.626316366782814</v>
+        <v>0.8721596897828083</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>95.5645206370291</v>
+        <v>368.1136999217185</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>4098.265759621539</v>
+        <v>3012.402887894845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>0.0005747069410006504</v>
+        <v>0.0005292823659058218</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.094454652368235</v>
+        <v>0.09949590570932898</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1.008781964332665e-07</v>
+        <v>3.049412574303763e-15</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1.709802669817388e-11</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>21.19139376153025</v>
+        <v>21.17316133569241</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>9350.29057788524</v>
+        <v>2921.352151414278</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>78.98709907646412</v>
+        <v>361.1122699115298</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1.659481433676635e-09</v>
+        <v>1.676769147537969e-15</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.03851618500268706</v>
+        <v>1.122065403554492e-14</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>87.2469604165759</v>
+        <v>85.29753667269766</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.1462851580005885</v>
+        <v>9.465079090868282e-10</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.04231668771430795</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>90.37762948887516</v>
+        <v>58.02860502425093</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>22.51932759135831</v>
+        <v>24.64561819837521</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.001314661620260182</v>
+        <v>5.33373535020476e-05</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.608957447618389</v>
+        <v>0.8721169365797276</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>95.30484574755093</v>
+        <v>364.3707438032527</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>4098.26546421715</v>
+        <v>3012.402885867118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>0.0005747021536799328</v>
+        <v>0.0005292823648947121</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.094454627153415</v>
+        <v>0.09949590570932898</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>6.094883620022529e-09</v>
+        <v>3.049412574303763e-15</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4.908666066209359e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>21.18536000669078</v>
+        <v>21.17306373256919</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8588.475160445852</v>
+        <v>2921.352151414187</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>78.98612033133163</v>
+        <v>359.8599853896185</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>2.129923573990807e-10</v>
+        <v>1.676769137558453e-15</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.038510191396985</v>
+        <v>4.588921835117314e-15</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>87.16861555801682</v>
+        <v>85.29639933266041</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.1456666429157872</v>
+        <v>9.464725003738295e-10</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.03664116552159532</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>89.08987288415091</v>
+        <v>58.01447520892044</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>22.51924602644459</v>
+        <v>22.96838386401545</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.001314460893496424</v>
+        <v>5.33356393242849e-05</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.602822337319944</v>
+        <v>0.8721168087398846</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>95.2623765608212</v>
+        <v>361.2084574610371</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>4098.265455543084</v>
+        <v>3012.402885783166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>0.0005747012765785819</v>
+        <v>0.0005292823648455402</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.094454626950005</v>
+        <v>0.09949590570932898</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5.302954223888416e-10</v>
+        <v>3.049412574303763e-15</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>21.13911946319883</v>
+        <v>21.170603159029</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7918.176588878177</v>
+        <v>2921.352151414181</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>78.98597831452415</v>
+        <v>356.0554000169958</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>5.213210253185972e-12</v>
+        <v>1.676769137557053e-15</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.03850903732372872</v>
+        <v>4.588921835117314e-15</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>87.10944620918617</v>
+        <v>85.2957643158994</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.1455478129485516</v>
+        <v>9.464725003738295e-10</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.0344079584136838</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>88.46608099291997</v>
+        <v>58.00889530752595</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>22.5192389387289</v>
+        <v>14.97371068874435</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.001314412501989815</v>
+        <v>5.333540869780403e-05</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.600427711162978</v>
+        <v>0.8721168086857546</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>95.2534891417949</v>
+        <v>359.9544564627823</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>4098.265454983646</v>
+        <v>3012.40288577823</v>
       </c>
     </row>
   </sheetData>
@@ -4909,618 +3453,618 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>30.05815497510064</v>
+        <v>31.53011901237079</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>29341.73800024719</v>
+        <v>30456.26023860539</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21.33843115252426</v>
+        <v>21.39612341951805</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>29266.53546437187</v>
+        <v>30553.14776776863</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.43314150866833</v>
+        <v>21.45059932350726</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17573.923899145</v>
+        <v>17970.93074069696</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29448.73762470422</v>
+        <v>30929.19125650006</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>119595.9093204716</v>
+        <v>125656.9773553036</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.34698112178376</v>
+        <v>21.37422851780931</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3377504976.736877</v>
+        <v>3721478339.438013</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>21.35474963363034</v>
+        <v>21.38731640971729</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>36.88512010368159</v>
+        <v>37.55385000037113</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3525733358.131961</v>
+        <v>3707571644.812411</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>28910.82001124741</v>
+        <v>30638.7324216932</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30.65903457926038</v>
+        <v>31.48535490490212</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>77.74963199059515</v>
+        <v>79.93512340427871</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>30196.4548537964</v>
+        <v>31334.6055710903</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>17553.49555696816</v>
+        <v>17941.64565783818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1.064221843184217</v>
+        <v>0.6852852976770559</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>459.6554540385615</v>
+        <v>394.9858514945877</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5.850809954926223</v>
+        <v>3.140141552711698</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>471.1829038983639</v>
+        <v>389.6617155759839</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>21.2406865703988</v>
+        <v>21.25429893931183</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>10973.3612846961</v>
+        <v>11899.5249140934</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>479.6504872417337</v>
+        <v>486.0913358826778</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>275.941246490634</v>
+        <v>44.06701984274835</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>5.584647332281806</v>
+        <v>3.442393884032762</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>51440.45790727642</v>
+        <v>2190.161210023856</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>3.323364602421753</v>
+        <v>6.587349388071045</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.947417329661079</v>
+        <v>3.139902940213197</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>78635.91518164644</v>
+        <v>2927.802574328232</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>506.4143109404425</v>
+        <v>416.6344192461567</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1.06631604774917</v>
+        <v>0.8720958471232628</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>19.87261758034043</v>
+        <v>15.19077915612846</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>936.5563533465349</v>
+        <v>490.6454783017655</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>9997.182968587918</v>
+        <v>11682.03372387786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.5637032255211599</v>
+        <v>0.003918624721686899</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>265.8724236677095</v>
+        <v>5.738572305378388</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>2.471692757383834</v>
+        <v>0.02094901421429277</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>264.4945402900051</v>
+        <v>0.2565249528142349</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>21.23353756988549</v>
+        <v>21.2433793447427</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8439.554109921914</v>
+        <v>9730.620195798498</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>271.2977730920182</v>
+        <v>424.1488428307673</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>22.33364181438248</v>
+        <v>0.02545588985061728</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1.740418459481383</v>
+        <v>0.06880106787205695</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>555.0130214755966</v>
+        <v>88.59937669554311</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2.152742258417748</v>
+        <v>0.3443170187441991</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.564939755239997</v>
+        <v>0.236496174060786</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1621.07742820628</v>
+        <v>70.74767791698049</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>291.3126961704553</v>
+        <v>90.99910246644829</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.2741220439114641</v>
+        <v>0.02930862440792708</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>10.69776358696612</v>
+        <v>3.160647074311731</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>483.6300742140599</v>
+        <v>417.5731829206352</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7498.940439403625</v>
+        <v>9740.710445630773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.1120728074693231</v>
+        <v>5.406139369112939e-06</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>71.23734758245539</v>
+        <v>0.005912812513253485</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1.144983437125552</v>
+        <v>0.0001431953902375641</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>75.25493662275879</v>
+        <v>1.348432203271225e-05</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>21.21245213993692</v>
+        <v>21.22182056746124</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7203.080288572967</v>
+        <v>7789.277576558232</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>69.32456574564459</v>
+        <v>402.9658873678845</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.4605128343940662</v>
+        <v>1.302787651884239e-05</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.4538928563226683</v>
+        <v>0.001296101276390704</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>258.9564841290168</v>
+        <v>80.4989004514205</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>2.05749313807647</v>
+        <v>0.004835774817274766</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.409721586420053</v>
+        <v>0.01427964126342947</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>261.3657291838924</v>
+        <v>59.62117756729818</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>76.92974532390373</v>
+        <v>35.51888477120114</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.04720549526541382</v>
+        <v>0.0006971108134666578</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>8.682618112805605</v>
+        <v>0.7348393940683716</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>378.5837286140488</v>
+        <v>395.52387012831</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>6194.456630030061</v>
+        <v>7748.031977113651</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>0.03499996204911881</v>
+        <v>7.367365495447587e-10</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>49.79168607166419</v>
+        <v>1.468748966656127e-06</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.9569591910617261</v>
+        <v>1.018307904102992e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>57.05007596334005</v>
+        <v>7.319965078522728e-10</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>21.20235560190998</v>
+        <v>21.22022489627636</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6394.72256377025</v>
+        <v>5870.906237941655</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>50.38874717871071</v>
+        <v>397.071770923711</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01467824015814793</v>
+        <v>7.216771291748069e-09</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.254502613242115</v>
+        <v>2.848322831174125e-05</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>215.7061120417095</v>
+        <v>79.72864316841054</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>2.021760735126901</v>
+        <v>0.0001144792768552764</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.373634874021299</v>
+        <v>0.0006611129985614639</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>194.0386430303494</v>
+        <v>58.71103490600967</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>53.45678882506714</v>
+        <v>25.24229817495556</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.01553633348608249</v>
+        <v>0.0002539611954500032</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>8.092015507726051</v>
+        <v>0.2827814407541884</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>293.5135676112861</v>
+        <v>386.6671008868298</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>5216.989925931624</v>
+        <v>5518.88698203924</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>0.02110766529329759</v>
+        <v>6.79556411142812e-13</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>48.24926886379868</v>
+        <v>9.559809536578238e-10</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.9306374477095717</v>
+        <v>7.484971664695195e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>56.37900284552727</v>
+        <v>3.931669804539221e-14</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>21.1781758136778</v>
+        <v>21.21150589716157</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5753.155309276892</v>
+        <v>4248.249146967854</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>49.7304318938148</v>
+        <v>391.5976663504138</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.001068945389028941</v>
+        <v>3.903256749018268e-12</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2071277248677212</v>
+        <v>6.218561203456356e-07</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>196.8821828237744</v>
+        <v>79.30479359058967</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.994179671478812</v>
+        <v>2.721730208647226e-06</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.364248981452019</v>
+        <v>2.752540577356892e-05</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>173.7804240285888</v>
+        <v>58.13483430314048</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>52.0077368627019</v>
+        <v>25.09545505260763</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.009258323173672848</v>
+        <v>0.0002466660225625805</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.872849146493071</v>
+        <v>0.1925928159514323</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>217.0168384912936</v>
+        <v>381.7624622258114</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4440.774532664835</v>
+        <v>3865.531072646841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>0.01681273535433617</v>
+        <v>1.1842378929335e-16</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>48.14165988420581</v>
+        <v>3.469224907348689e-13</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.9229013416033051</v>
+        <v>1.400178639698879e-10</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>56.30592747106847</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>21.07273293201003</v>
+        <v>21.20566762811718</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>5193.325609422512</v>
+        <v>3189.688818253531</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>49.68727203354369</v>
+        <v>385.316399524307</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0001089076669506684</v>
+        <v>2.002373484547653e-15</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1817466749195192</v>
+        <v>1.382117256198967e-08</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>143.1354039719619</v>
+        <v>79.08714711160947</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.973022758897965</v>
+        <v>6.076280406238274e-08</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.360827359941966</v>
+        <v>1.134901232073086e-06</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>159.0746513663659</v>
+        <v>57.65397183917967</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>51.89696521987864</v>
+        <v>24.70764606044806</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.007304124308269955</v>
+        <v>0.0002465376293085112</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.792566420570097</v>
+        <v>0.1742804721695748</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>178.5534354822609</v>
+        <v>374.7143938554634</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3974.071543751712</v>
+        <v>3253.270947487928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0.0147783981434084</v>
+        <v>0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>48.1265247621423</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.919174525338171</v>
+        <v>3.199544333180408e-12</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>56.28608186805484</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>20.91031018921435</v>
+        <v>21.19568753747498</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4685.370934716036</v>
+        <v>2917.234173096657</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>49.68220122373485</v>
+        <v>382.1367858383617</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1.188949152579821e-05</v>
+        <v>9.58423296179925e-19</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1646537866539269</v>
+        <v>3.225611481620187e-10</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>125.1590617597441</v>
+        <v>78.94019493587014</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.95531073877069</v>
+        <v>1.400702931420028e-09</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.359220967486364</v>
+        <v>5.674867982937333e-13</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>143.7445663550357</v>
+        <v>57.41350102701131</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>51.87729456936955</v>
+        <v>24.70764603296488</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.006424020420443903</v>
+        <v>0.0002465347888207514</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.752409340840084</v>
+        <v>0.170659428355826</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>164.4646737416372</v>
+        <v>372.9692013728861</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>3630.128893952332</v>
+        <v>2933.197080999596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>0.01356910712383515</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>48.12366182785419</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.9161058110828483</v>
+        <v>7.599846677900738e-14</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>56.27524372163466</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>20.6746918221391</v>
+        <v>21.19317505660592</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4216.482681269009</v>
+        <v>2915.578260894069</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>49.68163982704586</v>
+        <v>379.7183245770883</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1.339041092276206e-06</v>
+        <v>4.426258132687717e-22</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.146160173491959</v>
+        <v>7.263611934149594e-12</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>116.5157196807186</v>
+        <v>78.81780596928326</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.941106516869181</v>
+        <v>3.036856692043936e-11</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.358647906202345</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>131.793096664493</v>
+        <v>57.17237939516291</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>51.87256714182782</v>
+        <v>24.53628473178936</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.005867014095615704</v>
+        <v>0.0002465346917293387</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>7.732594933266313</v>
+        <v>0.1698851904762914</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>160.8903965540304</v>
+        <v>369.4555204390988</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>3386.186328579488</v>
+        <v>2838.256436125096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>0.0126387572948221</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>48.12305094628136</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.9140560434474946</v>
+        <v>7.993605777301127e-16</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>56.26918693785142</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>20.47679116718747</v>
+        <v>21.19311622262802</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3828.799370163418</v>
+        <v>2915.545582821114</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>49.68157886566954</v>
+        <v>375.8069880310543</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1.491408789030842e-07</v>
+        <v>2.314261253170617e-25</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1382404539494998</v>
+        <v>1.599609333879925e-13</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>110.6956214969204</v>
+        <v>78.69848028777714</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.928115702144815</v>
+        <v>6.986707508834418e-13</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.358361478175691</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>120.9436490484509</v>
+        <v>56.93042170965609</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>51.87120070122504</v>
+        <v>24.53628473178935</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.005426962843701177</v>
+        <v>0.0002465346831592534</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>7.723458699956865</v>
+        <v>0.1697412458721577</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>159.9909160583449</v>
+        <v>367.5185995470748</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3166.082007948103</v>
+        <v>2838.130843372762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>0.01179994808441296</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>48.12289470128498</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.9116365272684883</v>
+        <v>7.993605777301127e-16</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>56.26716484420293</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>20.31075264464534</v>
+        <v>21.18749279495653</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3569.045079834477</v>
+        <v>2915.543368582594</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>49.68157284597407</v>
+        <v>370.2018848680318</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1.354988010561394e-08</v>
+        <v>1.662708425297834e-27</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1306864807254451</v>
+        <v>1.391479524196863e-15</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>108.3417595961392</v>
+        <v>78.58795895164177</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.920426209111423</v>
+        <v>1.465494392505207e-14</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.35823813961935</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>115.5293020877107</v>
+        <v>56.8014918138589</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>51.87076328428791</v>
+        <v>24.53628473178935</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.005024566023307283</v>
+        <v>0.0002465346823960565</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>7.71924252032527</v>
+        <v>0.1697387357516277</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>159.7567106685369</v>
+        <v>366.6844972207353</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>3029.721169485765</v>
+        <v>2838.130827152702</v>
       </c>
     </row>
   </sheetData>
@@ -5636,618 +4180,618 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>30.91400452167991</v>
+        <v>31.89818324493142</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>31423.81777468589</v>
+        <v>29996.24352299598</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21.38299905934858</v>
+        <v>21.3863720916123</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>30732.02268558715</v>
+        <v>30067.75899618395</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.45989508939762</v>
+        <v>21.46850716744495</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>18139.16548878337</v>
+        <v>18020.20335210483</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30806.40591219845</v>
+        <v>30834.64266410913</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>123866.9463545503</v>
+        <v>125380.1142205342</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.38652930829026</v>
+        <v>21.40621040987989</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3611966602.527754</v>
+        <v>3658423266.494985</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>21.40848672506278</v>
+        <v>21.38405842721155</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>37.48339029560623</v>
+        <v>37.32546714047564</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3600374719.213071</v>
+        <v>3794888761.069037</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>31161.02893212336</v>
+        <v>31075.46998847568</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>31.77836219824923</v>
+        <v>31.13601930316273</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>79.03838211601852</v>
+        <v>80.11578143782512</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>30670.24607859878</v>
+        <v>29541.20734698879</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>17926.04672732089</v>
+        <v>18099.84341552268</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>0.690674089293786</v>
+        <v>0.9137997102347044</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>375.255493474207</v>
+        <v>401.9366170250511</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3.068264799127885</v>
+        <v>3.974382100006219</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>370.9805247726455</v>
+        <v>421.736632242375</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>21.25806106387412</v>
+        <v>21.25077472482286</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>13421.74381814081</v>
+        <v>13181.36361097572</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>440.5176197709473</v>
+        <v>527.274900647137</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>77.32548231393606</v>
+        <v>149.8238222722678</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>2.295901413224969</v>
+        <v>4.282483056821371</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>613.2638301477891</v>
+        <v>6456.03671568175</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>13.35176602015278</v>
+        <v>9.64196322064544</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>8.921835368445448</v>
+        <v>5.436507341432346</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>2071.701671335564</v>
+        <v>9654.470240766985</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>394.7196446368338</v>
+        <v>447.4601010533742</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0.9102767534456581</v>
+        <v>1.045462875707775</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>10.94384537190618</v>
+        <v>20.31282614278146</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1730.056525600275</v>
+        <v>552.386961404309</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>12363.72224475376</v>
+        <v>13114.94471665449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.06921107189216977</v>
+        <v>0.04062825238913845</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>89.88655364057986</v>
+        <v>61.49147240086107</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.01867835805427539</v>
+        <v>0.1096636029155694</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2924902661296197</v>
+        <v>4.579663860932697</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>21.23054925794342</v>
+        <v>21.23822177722126</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>12682.59320677718</v>
+        <v>12087.91622011649</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>387.5681852834155</v>
+        <v>433.5624787703375</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>5.228357249898012</v>
+        <v>0.2782945505365411</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.05981370053872661</v>
+        <v>0.2549276901617266</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>83.94194118229915</v>
+        <v>111.2621589298894</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>6.00274790920008</v>
+        <v>1.591362261495518</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.950523994305098</v>
+        <v>0.4002074213734737</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>145.7671886100923</v>
+        <v>102.2822963034688</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>148.8763100153364</v>
+        <v>115.0376105902148</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.03756594485430476</v>
+        <v>0.1253862186685806</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.117394846446395</v>
+        <v>5.692937861952259</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>574.969445266499</v>
+        <v>440.6066156631803</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4581.628163156795</v>
+        <v>11992.33179980476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.000813272982812859</v>
+        <v>9.689629554238873e-05</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.795002361710738</v>
+        <v>0.1007005128657382</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3.187946982684172e-05</v>
+        <v>0.001128604527508958</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.03007150394537e-06</v>
+        <v>0.0008496870586685764</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>21.21680680093734</v>
+        <v>21.22612014092772</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>12184.27383210995</v>
+        <v>11347.89490634737</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>370.1002731885847</v>
+        <v>416.9682147540315</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.3762979853423283</v>
+        <v>0.0005643841716030495</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.003562494958455738</v>
+        <v>0.007077031092466365</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>80.68154860584193</v>
+        <v>75.19706194233403</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>3.02526503709479</v>
+        <v>0.03555621975972937</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.188832507506486</v>
+        <v>0.02409454537513606</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>52.94045769502319</v>
+        <v>51.2180785619025</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>18.93699952121956</v>
+        <v>13.78560744327681</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.0005053229012176641</v>
+        <v>0.004240122739031386</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.377866503834754</v>
+        <v>1.651519486655088</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>422.0629978770642</v>
+        <v>414.525773325142</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2090.8390535126</v>
+        <v>11193.80570484506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>0.0004933410775298964</v>
+        <v>4.379329564615138e-07</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.227316838096715</v>
+        <v>0.0005549524982783419</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>6.404523415307987e-08</v>
+        <v>1.480497958666523e-05</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>6.223762246312011e-12</v>
+        <v>1.416512905194622e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>21.20752759493929</v>
+        <v>21.21258810684343</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>11855.26822555476</v>
+        <v>10517.09015562695</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>312.7630610337261</v>
+        <v>409.5763527030867</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02897593897467974</v>
+        <v>1.163493552944798e-06</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.0006785762778259338</v>
+        <v>0.0002970076286058721</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>80.47483991999381</v>
+        <v>74.39482809738823</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.080159180423132</v>
+        <v>0.001337209271395749</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.4599505949976631</v>
+        <v>0.001147433503310206</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>49.55748725084072</v>
+        <v>50.65607565695336</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>17.33283091861954</v>
+        <v>12.55764838147307</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>6.74873942508869e-06</v>
+        <v>0.0001375113019656982</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.965244647266006</v>
+        <v>0.5100356905916167</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>386.3039868875783</v>
+        <v>403.6927745178846</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>1986.433556435492</v>
+        <v>10494.32436655713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>0.0004930705190861547</v>
+        <v>2.163939509062611e-10</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.227116635678247</v>
+        <v>4.85622852567739e-07</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.009325055032453e-10</v>
+        <v>1.925941038353566e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0</v>
+        <v>2.679847455056006e-11</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>21.1993454532887</v>
+        <v>21.20393614471728</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>11590.32094898095</v>
+        <v>9974.714004678153</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>206.4570558453646</v>
+        <v>397.2539527548656</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.002307348178072242</v>
+        <v>2.295083408020724e-09</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0001756884525674647</v>
+        <v>1.291123180668189e-05</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>80.42946595558924</v>
+        <v>74.13527852653115</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.2227572116045236</v>
+        <v>5.658449319930389e-05</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.1501657750889405</v>
+        <v>3.567911312719237e-05</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>49.22693708925807</v>
+        <v>50.47777808160652</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.410325347664377</v>
+        <v>12.23940335852223</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>8.93167828142083e-08</v>
+        <v>4.183832277141845e-06</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.8629547992511964</v>
+        <v>0.1942335135043535</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>363.4694533605209</v>
+        <v>398.6552858693413</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1979.065240805421</v>
+        <v>9828.850602122917</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>0.0004930693636809499</v>
+        <v>2.599069108081646e-13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.227116006421883</v>
+        <v>3.752765801815864e-10</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2.082371904540044e-10</v>
+        <v>2.985999684549749e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
+        <v>2.01320441798695e-15</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>21.19263455692869</v>
+        <v>21.19723525701982</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>11401.04905905335</v>
+        <v>9189.905295486276</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>147.6363848941183</v>
+        <v>386.9042691436618</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0003093875960847427</v>
+        <v>3.799006273359428e-12</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>4.748119190312039e-05</v>
+        <v>5.726521577228046e-07</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>80.41575588196291</v>
+        <v>73.94370940245651</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.06320367342587649</v>
+        <v>2.36505461600108e-06</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.04704688743353173</v>
+        <v>1.140672670392936e-08</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>49.1530124102532</v>
+        <v>50.16083987507307</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.362829843630535</v>
+        <v>12.10052002966051</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1.161620266643126e-09</v>
+        <v>1.365200688200711e-07</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.8364138200672102</v>
+        <v>0.1097858425239991</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>327.7496853715399</v>
+        <v>394.5303354447268</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>1978.49050577346</v>
+        <v>9091.533452105379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0.0004930693556660907</v>
+        <v>1.480297366166875e-16</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.227116002513721</v>
+        <v>2.814341352556464e-13</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5.571682374731305e-11</v>
+        <v>1.254575406524812e-10</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>21.19188498576142</v>
+        <v>21.19147347351436</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>11192.66261178627</v>
+        <v>8523.182432021007</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>109.5863800032469</v>
+        <v>383.6129933334486</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>2.031093428113039e-05</v>
+        <v>7.415699757700749e-15</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1.303024540696048e-05</v>
+        <v>2.405743050696666e-08</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>80.4121412881457</v>
+        <v>73.75737616971247</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.02254099179840342</v>
+        <v>1.066283076944785e-07</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.01754679457865933</v>
+        <v>1.11318361935749e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>49.13702130280563</v>
+        <v>49.36979198713414</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.362699654825106</v>
+        <v>11.84483673885779</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1.382970774936136e-11</v>
+        <v>4.624418603604851e-09</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.829788340440183</v>
+        <v>0.08671720690117771</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>196.7718230500859</v>
+        <v>390.4818979046989</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>1978.44419582247</v>
+        <v>8237.39447600154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>0.0004930693556080446</v>
+        <v>0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.2271160024879</v>
+        <v>7.697546304067752e-16</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1.582162549122283e-11</v>
+        <v>5.552269755071393e-12</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>21.18651230044326</v>
+        <v>21.18755075369981</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>11035.04689654528</v>
+        <v>7606.64001530215</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>77.63481359493713</v>
+        <v>381.5248959294825</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>6.250286144476678e-07</v>
+        <v>1.257170311795472e-17</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>3.511175982702971e-06</v>
+        <v>9.786805736193098e-10</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>80.41111388448675</v>
+        <v>73.57951809699867</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.005979116841928889</v>
+        <v>4.737556806115132e-09</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.006331963515873913</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>49.13235970008669</v>
+        <v>48.78894177372139</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>7.362694892947677</v>
+        <v>11.78594495556862</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1.868616372746601e-13</v>
+        <v>1.426397703655861e-10</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.828132051145046</v>
+        <v>0.0804084307592845</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>144.1139374196876</v>
+        <v>386.5588903057528</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>1978.440486154358</v>
+        <v>7641.342095102848</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>0.0004930693556076671</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.22711600248776</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>4.507535085925459e-12</v>
+        <v>2.319625972783494e-13</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>21.18114472235211</v>
+        <v>21.18310871005355</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>10856.11915345926</v>
+        <v>6746.360080664789</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>64.37418595780463</v>
+        <v>379.7929736158367</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>4.509377314148862e-08</v>
+        <v>2.52806615346244e-20</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>9.525873866008302e-07</v>
+        <v>4.23260537729675e-11</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>80.41083605803406</v>
+        <v>73.3934272940527</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.001548836091887858</v>
+        <v>2.105434937504924e-10</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.002488452314273815</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>49.13101881522154</v>
+        <v>48.72216876503732</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>7.362694538536234</v>
+        <v>11.22219119207802</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1.846670964293177e-15</v>
+        <v>4.389129800349186e-12</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.8277210180266086</v>
+        <v>0.07876704192312284</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>115.9873776459539</v>
+        <v>385.4780232225326</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1978.440227745211</v>
+        <v>7032.718093226232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>0.0004930693556076634</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.227116002487757</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1.264144344759188e-12</v>
+        <v>4.944193202997364e-15</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>21.17809266375907</v>
+        <v>21.18117198740873</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>10602.18758998949</v>
+        <v>5923.513465188935</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>55.0652716335317</v>
+        <v>376.1434754315342</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>3.454397744198424e-09</v>
+        <v>4.571449198191253e-23</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>2.493116770511487e-07</v>
+        <v>1.883619186552702e-12</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>80.41075745494209</v>
+        <v>73.2019663258033</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.0004057590025656014</v>
+        <v>9.185630034380665e-12</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.001241145539464365</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>49.13056912527664</v>
+        <v>48.67975970336526</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>7.362694506602774</v>
+        <v>11.22219119207802</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>3.700743415417188e-18</v>
+        <v>1.353435881886374e-13</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.8276374536398426</v>
+        <v>0.07832718418691229</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>83.43735594152164</v>
+        <v>381.3922840182245</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1978.440209182596</v>
+        <v>6224.672485550106</v>
       </c>
     </row>
   </sheetData>
@@ -6363,618 +4907,618 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29.63252459107677</v>
+        <v>31.25158991392937</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>29648.18978587953</v>
+        <v>30870.04825278049</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21.35933572290613</v>
+        <v>21.38864978098567</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>29395.54793982822</v>
+        <v>30483.22873256452</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.44736530086393</v>
+        <v>21.48104814257715</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17564.63609734191</v>
+        <v>17687.28444799645</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29446.20402785772</v>
+        <v>30294.86444293322</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>117940.0009255932</v>
+        <v>122542.685610117</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.35989600738554</v>
+        <v>21.4028522584649</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3410608818.088954</v>
+        <v>3817358011.90308</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>21.37454479319667</v>
+        <v>21.39596832841097</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>36.88659327394898</v>
+        <v>37.34451225079707</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3300941056.150392</v>
+        <v>3629357259.466493</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>29573.65449151723</v>
+        <v>30703.72720064785</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30.44524586345828</v>
+        <v>31.43864026318598</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>78.19014364054416</v>
+        <v>78.43717692998126</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>29642.19995529141</v>
+        <v>30753.07144888914</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>17526.91784834205</v>
+        <v>17672.45699009409</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1.40829021039774</v>
+        <v>1.206585592146471</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>829.5340524438072</v>
+        <v>490.1970962638206</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>12.23884707919643</v>
+        <v>8.110296583427498</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1310.921807569873</v>
+        <v>506.1145203912044</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>21.26365506699697</v>
+        <v>21.24432516333051</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>13970.31912614297</v>
+        <v>6197.017772709373</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1490.902480332105</v>
+        <v>1026.103515293911</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>3823.23984340238</v>
+        <v>2181.205025330556</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>13.80259169789702</v>
+        <v>9.392383053819428</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>7308000.508084103</v>
+        <v>2486842.370979195</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>21.13429230170671</v>
+        <v>15.63380249317232</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>27.85416157678902</v>
+        <v>15.60212645347319</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>1715503.87254613</v>
+        <v>2033783.827071259</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>961.1609033223559</v>
+        <v>745.7519350960489</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>2.532575781588265</v>
+        <v>1.443703565107587</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>37.14774428659995</v>
+        <v>27.6638199387911</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>3883.594813540361</v>
+        <v>2172.594584012309</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>15310.84104212282</v>
+        <v>6204.858934237893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.9724685156939252</v>
+        <v>1.195644350276981</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>394.2382051042088</v>
+        <v>476.6886011812378</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>4.675532536014344</v>
+        <v>8.047042337464022</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>401.7887492151739</v>
+        <v>495.9916846917873</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>21.24980005702427</v>
+        <v>21.22557871914686</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>12903.58300156566</v>
+        <v>6195.634851103621</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>601.564750942345</v>
+        <v>1024.919079535395</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>490.9083462118236</v>
+        <v>2125.212521714504</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>3.72836796540351</v>
+        <v>9.231242572112201</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>3344.228839710551</v>
+        <v>2416418.555720806</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>20.29419747913136</v>
+        <v>15.62796785626261</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>22.83620543045708</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>9239.945003832427</v>
+        <v>1976634.610935899</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>404.7630512656946</v>
+        <v>733.4969016466149</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1.187717961860597</v>
+        <v>1.430447607335658</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>23.75210652596607</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>846.1925644118625</v>
+        <v>2170.311282498407</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>15140.87834000334</v>
+        <v>6202.712913118814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.5267566655610818</v>
+        <v>1.195574316752431</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>345.1371986033695</v>
+        <v>476.6364435744054</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3.017924608011413</v>
+        <v>8.0466861247205</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>343.5063007474581</v>
+        <v>495.9558019584187</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>21.22209288325627</v>
+        <v>21.21989108991954</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>12295.11458463397</v>
+        <v>6195.633999463723</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>473.1315318190901</v>
+        <v>1024.916364583858</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>51.8414547812245</v>
+        <v>2124.340962849573</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1.087729776415473</v>
+        <v>9.230750417999916</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>203.5078967027854</v>
+        <v>2415805.067806487</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>16.56144361941191</v>
+        <v>15.62795988473134</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>13.91577528479487</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>1419.059014090546</v>
+        <v>1976291.874852023</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>356.6353292735647</v>
+        <v>733.4842690070416</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.9356364967874201</v>
+        <v>1.430311866970334</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>15.27399936613232</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>511.0676753259099</v>
+        <v>2170.310400492551</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>15009.20504879004</v>
+        <v>6202.706574448005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>0.133069052549717</v>
+        <v>1.195573666718001</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>199.3679208511554</v>
+        <v>476.6361623043293</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1.269276604979636</v>
+        <v>8.046683001778547</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>155.0520256067475</v>
+        <v>495.9556916279016</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>21.21854104644591</v>
+        <v>21.21989108991953</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>11698.15395615471</v>
+        <v>6195.633998422106</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>432.7099363865489</v>
+        <v>1024.916358053253</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>5.291647979232796</v>
+        <v>2124.3337311159</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2136534544514902</v>
+        <v>9.230747047767466</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>99.95841485481739</v>
+        <v>2415799.761530368</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>10.50797947953132</v>
+        <v>15.62795982670929</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>7.72687992919394</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>309.5880291834211</v>
+        <v>1976288.564614694</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>292.6972181856179</v>
+        <v>733.4841587297392</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.3322716773334781</v>
+        <v>1.430310411110608</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>9.200553768618168</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>446.1333116642519</v>
+        <v>2170.310400175219</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>14932.46290853005</v>
+        <v>6202.706569320118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>0.006974812144569068</v>
+        <v>1.195573661959882</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>11.28934024495284</v>
+        <v>476.6361613001047</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.06725058477473569</v>
+        <v>8.046682988665795</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.54037281254729</v>
+        <v>495.9556913642191</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>21.20827988822139</v>
+        <v>21.21989108991953</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>11378.22798431817</v>
+        <v>6195.633998419525</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>420.8072647036747</v>
+        <v>1024.916358052131</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.539658552788732</v>
+        <v>2124.333706556522</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.06553393347078856</v>
+        <v>9.230747035926617</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>90.21172261368318</v>
+        <v>2415799.736802745</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>5.66147056431034</v>
+        <v>15.62795982659406</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.199602153885161</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>72.67485652539138</v>
+        <v>1976288.531401522</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>41.53907468864787</v>
+        <v>733.4841587096701</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.07572354168938057</v>
+        <v>1.430310385823055</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.577959275641679</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>425.4112509180284</v>
+        <v>2170.310400175197</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>14848.92928794706</v>
+        <v>6202.706569319199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>0.0001652832740631993</v>
+        <v>1.195573661953423</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.2857988680188148</v>
+        <v>476.6361612954091</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.00398534695745972</v>
+        <v>8.046682988656668</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.01363992469270805</v>
+        <v>495.9556913640704</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>21.20277465239542</v>
+        <v>21.21989108991953</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>11078.83213292606</v>
+        <v>6195.633998419525</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>408.6711476693309</v>
+        <v>1024.916358052131</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.05064391711710229</v>
+        <v>2124.333706482761</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.01931986424627997</v>
+        <v>9.230747035907253</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>87.54261126557088</v>
+        <v>2415799.736695252</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>2.935983608997062</v>
+        <v>15.62795982659406</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.330670719997436</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>50.23584355226621</v>
+        <v>1976288.531271816</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.663391710931412</v>
+        <v>733.4841587096643</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.01497482030064711</v>
+        <v>1.430310385641981</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.430961647639992</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>416.3098915590161</v>
+        <v>2170.310400175197</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>14725.34894890573</v>
+        <v>6202.706569319199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>4.296493067183308e-06</v>
+        <v>1.195573661953421</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.007078047598147149</v>
+        <v>476.6361612953963</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.0002750429843460189</v>
+        <v>8.046682988656629</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6.77331643932059e-05</v>
+        <v>495.9556913640704</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>21.19927131116409</v>
+        <v>21.21989108991953</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>10786.13581116087</v>
+        <v>6195.633998419525</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>403.0317571538852</v>
+        <v>1024.916358052131</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.005532083494658702</v>
+        <v>2124.333706482644</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.005948244387531876</v>
+        <v>9.230747035907241</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>86.32501631954071</v>
+        <v>2415799.736694495</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.236419283135141</v>
+        <v>15.62795982659406</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.343136183311032</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>47.6956105051847</v>
+        <v>1976288.531271152</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.1101162323758765</v>
+        <v>733.4841587096643</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.003176419478460209</v>
+        <v>1.430310385641451</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>2.102135487402812</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>408.5431659329832</v>
+        <v>2170.310400175197</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>14655.78851251551</v>
+        <v>6202.706569319199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>1.142873955214026e-07</v>
+        <v>1.195573661953421</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.0001967802229278466</v>
+        <v>476.6361612953963</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>2.182588763976293e-05</v>
+        <v>8.046682988656629</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4.806794936603372e-07</v>
+        <v>495.9556913640704</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>21.19270277664005</v>
+        <v>21.21989108991953</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>10567.04163232218</v>
+        <v>6195.633998419525</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>398.3293701387493</v>
+        <v>1024.916358052131</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0005477697853792418</v>
+        <v>2124.333706482644</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.001780968265026761</v>
+        <v>9.230747035907241</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>85.48136590989391</v>
+        <v>2415799.736694476</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.3787419644445786</v>
+        <v>15.62795982659406</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.8472773067178859</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>47.00507728751527</v>
+        <v>1976288.531271151</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0.01248861812408197</v>
+        <v>733.4841587096643</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0006475592998287335</v>
+        <v>1.430310385641447</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.358127549961182</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>399.4701023406444</v>
+        <v>2170.310400175197</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>14610.78875400913</v>
+        <v>6202.706569319199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>3.351031744684244e-09</v>
+        <v>1.195573661953421</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>5.474408386222744e-06</v>
+        <v>476.6361612953963</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1.497379641168806e-06</v>
+        <v>8.046682988656629</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.627994237040336e-09</v>
+        <v>495.9556913640704</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>21.19036980497297</v>
+        <v>21.21989108991953</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>10360.0580151263</v>
+        <v>6195.633998419525</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>390.3120533102845</v>
+        <v>1024.916358052131</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>5.139251591474833e-05</v>
+        <v>2124.333706482644</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.0005734473294594681</v>
+        <v>9.230747035907241</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>84.80148358616562</v>
+        <v>2415799.736694476</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.1017590492116487</v>
+        <v>15.62795982659406</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.4131055855660821</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>46.42355557749091</v>
+        <v>1976288.531271151</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.001336868772687379</v>
+        <v>733.4841587096643</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.0001258900695994436</v>
+        <v>1.430310385641447</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.8909199574090398</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>395.8068878233498</v>
+        <v>2170.310400175197</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>14559.59522418287</v>
+        <v>6202.706569319199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>7.774498452424912e-11</v>
+        <v>1.195573661953421</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.258365210550968e-07</v>
+        <v>476.6361612953963</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1.059091458384861e-07</v>
+        <v>8.046682988656629</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.102063625542845e-11</v>
+        <v>495.9556913640704</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>21.18773029276286</v>
+        <v>21.21989108991953</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>10194.87258739384</v>
+        <v>6195.633998419525</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>388.3111636719048</v>
+        <v>1024.916358052131</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>5.514479373664758e-06</v>
+        <v>2124.333706482644</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0001887654295814833</v>
+        <v>9.230747035907241</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>84.11896473669536</v>
+        <v>2415799.736694476</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.02657922966816289</v>
+        <v>15.62795982659406</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.269765071354995</v>
+        <v>15.60183920192451</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>45.94870905764613</v>
+        <v>1976288.531271151</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0.0001358569663614399</v>
+        <v>733.4841587096643</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>2.692454949179135e-05</v>
+        <v>1.430310385641447</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.5899426771390599</v>
+        <v>27.66174015265496</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>391.8141148655542</v>
+        <v>2170.310400175197</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>14478.23846846029</v>
+        <v>6202.706569319199</v>
       </c>
     </row>
   </sheetData>
@@ -7090,618 +5634,618 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>30.01435977916757</v>
+        <v>31.03542687846144</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>29517.45004407938</v>
+        <v>30343.85501172503</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21.36921746147519</v>
+        <v>21.37934817914598</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>29425.19618519435</v>
+        <v>30841.44874421792</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.43894291658771</v>
+        <v>21.47365393089689</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17635.92136011781</v>
+        <v>17921.88723351057</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29255.832661157</v>
+        <v>30580.71217269133</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>119518.6458136374</v>
+        <v>126474.236948989</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.34551178284935</v>
+        <v>21.3956516821619</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3434215934.918338</v>
+        <v>3644505882.603605</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>21.3504001972617</v>
+        <v>21.38641446245567</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>36.49439879062592</v>
+        <v>37.94660151209466</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3289451022.370731</v>
+        <v>3616660536.879259</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>29076.64993625557</v>
+        <v>31312.24584603369</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30.02458873853841</v>
+        <v>31.31534300983424</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>78.20720705334442</v>
+        <v>79.33215030532212</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>29309.94167228565</v>
+        <v>30207.49632248167</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>17659.54283747998</v>
+        <v>17997.77201450742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>0.7963392958800245</v>
+        <v>0.9659484623621325</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>327.3153835219621</v>
+        <v>421.7190406309466</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3.725610016068682</v>
+        <v>4.521863547804469</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>341.1719775793832</v>
+        <v>433.3017656923171</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>21.26235747067373</v>
+        <v>21.25449531933118</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6032.800484828287</v>
+        <v>14400.85465508927</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>480.5693683049479</v>
+        <v>545.8420555978377</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>93.98889886211002</v>
+        <v>246.6525854902343</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>3.930385921935747</v>
+        <v>4.718355473124176</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>3944.380793756879</v>
+        <v>10888.04144399234</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>6.168367844665199</v>
+        <v>10.72958705634294</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>6.096314865752541</v>
+        <v>8.560200983581625</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7907.709828858179</v>
+        <v>11614.782688762</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>405.3514429210479</v>
+        <v>449.9362755567263</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0.9504578963435077</v>
+        <v>1.062394552945657</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>19.49264785538949</v>
+        <v>21.00166521019884</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>566.322859092656</v>
+        <v>586.8482985427145</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>4897.659746944876</v>
+        <v>14317.92790778051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.100387188510193</v>
+        <v>0.05259242917596416</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>76.40777001524097</v>
+        <v>87.4367287753027</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1.364797892955774</v>
+        <v>0.2600704216665684</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>72.82285705498559</v>
+        <v>17.66456155248283</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>20.83548204821441</v>
+        <v>21.22642957762543</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3967.078913614561</v>
+        <v>13596.6515583929</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>185.6502963880189</v>
+        <v>444.1032446787164</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.7167656533524644</v>
+        <v>0.7756459260556751</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.9350715172491373</v>
+        <v>0.4819766274660531</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>191.0814776538098</v>
+        <v>144.9343920470793</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>2.72665313148172</v>
+        <v>2.221346992831242</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.346415622233402</v>
+        <v>0.9282997340266799</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>330.2500242184552</v>
+        <v>148.6507907858131</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>111.4491280131756</v>
+        <v>227.6153364586434</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.1112689665951139</v>
+        <v>0.1214980552974777</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>13.81791000034632</v>
+        <v>6.976008378552029</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>251.7615210093905</v>
+        <v>441.2728653945201</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3513.783661079583</v>
+        <v>13748.65640784749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.03144306557969372</v>
+        <v>0.0006387617252717821</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>51.16722416548976</v>
+        <v>0.4851111792888756</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1.189149393352206</v>
+        <v>0.003227914693455454</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>58.81525526561883</v>
+        <v>0.007129423580378772</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>20.29309305982519</v>
+        <v>21.21581622523989</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3576.890666888567</v>
+        <v>13223.59294763217</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>167.0213315466189</v>
+        <v>417.5267102730206</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04300612426774861</v>
+        <v>0.002544880912262401</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.5413665412641707</v>
+        <v>0.01542510399673889</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>121.0046804649983</v>
+        <v>81.42969378942345</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>2.10429061985948</v>
+        <v>0.07875899621792042</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.099285402181381</v>
+        <v>0.08656654208115905</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>190.6369192401257</v>
+        <v>54.36616264731698</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>92.50553286154118</v>
+        <v>19.8983738963747</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.02661294822817145</v>
+        <v>0.003840193026099351</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>12.78633975144441</v>
+        <v>2.531490921222415</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>220.7018341664694</v>
+        <v>414.9862568606533</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3269.629714526139</v>
+        <v>13066.75371977239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>0.0173882908461848</v>
+        <v>1.321122950720399e-05</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>35.68732945947072</v>
+        <v>0.02864594213083548</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1.146935877277024</v>
+        <v>6.364725070655553e-05</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>55.27002325682133</v>
+        <v>2.666700597527457e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>20.13136612169292</v>
+        <v>21.21129407553079</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3371.150173968881</v>
+        <v>12775.48677229134</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>166.8132712498997</v>
+        <v>406.5405817313853</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.005656970229376942</v>
+        <v>8.381661506964465e-06</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.4188760332416498</v>
+        <v>0.0008723336915536765</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>106.3627467031029</v>
+        <v>79.92919525633079</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.973303056736226</v>
+        <v>0.00369985429856851</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.02707057759641</v>
+        <v>0.01125404036532653</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>161.3274459226714</v>
+        <v>50.33893391484307</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>92.08080911537968</v>
+        <v>13.03038064942603</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.01535516208886123</v>
+        <v>0.0001184654649318976</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>12.54889924525355</v>
+        <v>1.202972932909926</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>220.1385286468339</v>
+        <v>401.3212650129253</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3136.699406132851</v>
+        <v>12510.15929009771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>0.0132756754736147</v>
+        <v>2.268607537381229e-08</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>29.96633071380671</v>
+        <v>3.530139473237881e-05</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1.137013263789665</v>
+        <v>1.265014210686625e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>54.95761303301497</v>
+        <v>1.15311742376889e-09</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>20.06671316257404</v>
+        <v>21.20636635709097</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3229.796031186335</v>
+        <v>12420.50388922043</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>166.793843607718</v>
+        <v>396.1943295553243</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.00471789881920301</v>
+        <v>2.768855568291009e-08</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3588138031093934</v>
+        <v>5.104278902262986e-05</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>102.5214244943547</v>
+        <v>79.43422322073177</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.935314848190279</v>
+        <v>0.0002135546131593872</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.02353790111995</v>
+        <v>0.0009678165653397742</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>150.2210840166358</v>
+        <v>50.09150864271748</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>92.04230325393178</v>
+        <v>12.99589883781264</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.01108509962943604</v>
+        <v>4.175926881418619e-06</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>12.48847187837526</v>
+        <v>0.7979759182160554</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>220.1245448113998</v>
+        <v>390.2816081606865</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3036.080032218295</v>
+        <v>12040.27440359642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>0.01098208448130177</v>
+        <v>5.02970665117175e-11</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>27.44789031247365</v>
+        <v>8.342415434015038e-08</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1.125852986413516</v>
+        <v>2.516546446784673e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>54.01542353523428</v>
+        <v>4.736359452787534e-13</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>20.05433855677412</v>
+        <v>21.20035752381344</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3114.379834627184</v>
+        <v>12065.58910514123</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>166.7876816207054</v>
+        <v>392.7387522463808</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0009836010719158057</v>
+        <v>9.481447654576845e-11</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3213981528065576</v>
+        <v>2.981366887263211e-06</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>97.93422304169869</v>
+        <v>78.91409095836897</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.921212194038311</v>
+        <v>1.256716877569749e-05</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.023451108256149</v>
+        <v>6.21334034749547e-05</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>144.0800070078275</v>
+        <v>49.97279386805722</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>91.90759321440585</v>
+        <v>12.99579928298919</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.009184550982134816</v>
+        <v>1.529687423544128e-07</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>12.4726845050797</v>
+        <v>0.6743726477917268</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>220.1229813494333</v>
+        <v>387.6436310019296</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2965.367173877087</v>
+        <v>11555.46509575081</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>0.00868357584732048</v>
+        <v>1.018518602791119e-13</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>26.74680462906955</v>
+        <v>1.474623090302884e-10</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1.123764159560973</v>
+        <v>8.387538663612304e-10</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>53.96182376509614</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>20.05244102147874</v>
+        <v>21.19470912671801</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3036.401193896895</v>
+        <v>11625.86897262803</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>166.7876541599616</v>
+        <v>388.2315533588954</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0006876372637182516</v>
+        <v>3.939789079331327e-13</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3140068395905774</v>
+        <v>1.718966400628593e-07</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>95.91378970286864</v>
+        <v>77.80258564433809</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.91661831663051</v>
+        <v>7.825400353489442e-07</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.023379174145675</v>
+        <v>7.199733938515844e-07</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>137.2921343852969</v>
+        <v>49.86011886862487</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>89.91744791816176</v>
+        <v>12.99579903550534</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0.007731804872707289</v>
+        <v>7.276946138260835e-09</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>12.46644852532196</v>
+        <v>0.6368747669133142</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>220.1228114285927</v>
+        <v>383.2008919888264</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>2943.28458062253</v>
+        <v>11113.64299691064</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>0.007537687568039464</v>
+        <v>2.960594732333751e-16</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>25.13148158693046</v>
+        <v>4.184504594680523e-13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1.123609653527712</v>
+        <v>5.082805287770498e-11</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>53.96111898541623</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>20.05221129101499</v>
+        <v>21.19047342711598</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2941.346855766246</v>
+        <v>11192.02095351897</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>166.787652354585</v>
+        <v>384.8411548529754</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0004536595981630499</v>
+        <v>1.422637248715949e-15</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3127008503255261</v>
+        <v>1.046204933056553e-08</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>95.58798530082659</v>
+        <v>77.06110615866842</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.914628566971218</v>
+        <v>4.420629808876697e-08</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.023062684528363</v>
+        <v>4.099476313967898e-11</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>132.1592930696124</v>
+        <v>49.69820738523956</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>89.88014881953315</v>
+        <v>12.99579903462058</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.006997666663576222</v>
+        <v>3.719065055918236e-10</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>12.46470440627069</v>
+        <v>0.6251559732907737</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>220.1227798163342</v>
+        <v>381.8191278927641</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>2868.118615518046</v>
+        <v>10642.17959322713</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>0.006347426130153085</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>24.52714913361133</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1.123124510375722</v>
+        <v>3.063830670650229e-12</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>53.96111655018665</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>20.05212251044352</v>
+        <v>21.18745790761153</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2855.386544034472</v>
+        <v>10754.3322669291</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>166.7876521177382</v>
+        <v>377.3487296833342</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0004511018871599605</v>
+        <v>5.656944638934934e-18</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3075709326857338</v>
+        <v>6.471305565488213e-10</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>95.01482194743942</v>
+        <v>76.80876584627458</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.914025120049772</v>
+        <v>2.415511790587743e-09</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.023045709058288</v>
+        <v>4.736951571734001e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>128.9638729998844</v>
+        <v>49.50935526727992</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>89.87459467025545</v>
+        <v>12.99579903461755</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.006454329688223862</v>
+        <v>1.670217297800036e-11</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>12.46418428979121</v>
+        <v>0.621725010591653</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>220.1227727868094</v>
+        <v>378.6273168195008</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>2792.682708737916</v>
+        <v>10305.99416262218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>0.006155201103241932</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>24.51080425013671</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1.122410665125989</v>
+        <v>1.906326948149702e-13</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>53.96111586946817</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>20.05210993032972</v>
+        <v>21.18657826249855</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2818.920561207357</v>
+        <v>10319.60651986221</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>166.7876519425359</v>
+        <v>374.5000027724672</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.0004503540144468751</v>
+        <v>1.70516234740406e-20</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3069548652496408</v>
+        <v>3.767199885373884e-11</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>94.74266832595094</v>
+        <v>76.56804102290829</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.912908487337832</v>
+        <v>1.455226753914e-10</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.022783488970806</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>126.6050177104327</v>
+        <v>49.03268402963034</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>89.87396613061692</v>
+        <v>12.99579903461754</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0.005907936714354071</v>
+        <v>5.371481037741432e-13</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>12.46401865530565</v>
+        <v>0.6206638435186496</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>220.1206259240807</v>
+        <v>376.2769535495244</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2745.812481244153</v>
+        <v>9833.257896773152</v>
       </c>
     </row>
   </sheetData>
@@ -7817,618 +6361,618 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>30.29157954020418</v>
+        <v>31.50566048365375</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>29787.68631827602</v>
+        <v>30504.66883682641</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>21.35526958832542</v>
+        <v>21.38800535573657</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>29977.48751064022</v>
+        <v>30494.81608840302</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>21.4285900849731</v>
+        <v>21.45289006542981</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>17537.73748830533</v>
+        <v>17757.29884615299</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29456.08411676979</v>
+        <v>30261.1715335537</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>119189.1899021422</v>
+        <v>123910.6737013793</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>21.36700063637839</v>
+        <v>21.39433023763111</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>3396853549.421126</v>
+        <v>3694381308.69469</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>21.34300550835849</v>
+        <v>21.39059714778724</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>36.69561700548383</v>
+        <v>37.52983224731319</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3574274930.714012</v>
+        <v>3679806057.004501</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>29600.56112116423</v>
+        <v>30581.88012993258</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>30.62656508797861</v>
+        <v>31.06608434345312</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>77.51248645795226</v>
+        <v>79.49958086018843</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>29100.9854490946</v>
+        <v>30740.99949594718</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>17593.99401953871</v>
+        <v>18042.79591607639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>0.9537389495687233</v>
+        <v>0.8710960928932331</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>401.9464739022391</v>
+        <v>409.3285516970885</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>5.364039406581048</v>
+        <v>4.229583601582693</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>467.0698453929062</v>
+        <v>422.3197050314227</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>21.26653249880183</v>
+        <v>21.25492279889477</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>13027.81904569204</v>
+        <v>14282.37162152726</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>564.769240076934</v>
+        <v>535.1795592611853</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>237.2247439981876</v>
+        <v>188.9673345927204</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>7.231701369074385</v>
+        <v>4.597421772512905</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>131043.1294256502</v>
+        <v>11530.90049287411</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>19.32905893247987</v>
+        <v>7.981465055988336</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>7.750903062222339</v>
+        <v>6.214464804918748</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>57726.42178440483</v>
+        <v>13318.44322788372</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>540.001335331303</v>
+        <v>455.127353818256</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1.08578809080903</v>
+        <v>1.045467820695276</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>24.41976766734134</v>
+        <v>17.62257023227176</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>565.9707184220108</v>
+        <v>564.2880804113303</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>13143.36418375574</v>
+        <v>14450.5846697229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>0.09118483561551956</v>
+        <v>0.05210437848263667</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>135.2056351511686</v>
+        <v>107.1261020052459</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.4546797416398489</v>
+        <v>0.7480073727214954</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>39.17160376782795</v>
+        <v>75.28730607346093</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>21.2417527453603</v>
+        <v>21.2283031954656</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>11874.40825287197</v>
+        <v>13090.81003903143</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>445.6739287606621</v>
+        <v>446.5612722393082</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.5331310950543231</v>
+        <v>3.051716293211146</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1.351923823802348</v>
+        <v>0.7581094052615811</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>335.5412213034589</v>
+        <v>178.339652360675</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>8.005626052255185</v>
+        <v>1.954336143447863</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.7204096205005146</v>
+        <v>0.7417840453707721</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>307.7499098283433</v>
+        <v>403.6996673331076</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>331.6816295690954</v>
+        <v>349.9160445618231</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.2129768195603447</v>
+        <v>0.1137798053436073</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.196793707953876</v>
+        <v>7.403266046441474</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>445.2554544891763</v>
+        <v>453.5361714030157</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>12119.46302447171</v>
+        <v>13297.39854371584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>0.0007761525828139123</v>
+        <v>0.005197621595259157</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.6523943210464154</v>
+        <v>39.61463994029211</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.004076258763774584</v>
+        <v>0.2528486243894878</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.01197968382734208</v>
+        <v>3.054414561721489</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>21.22154347668821</v>
+        <v>21.21737532368367</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>11207.57599087697</v>
+        <v>11910.73783850875</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>422.2431419310199</v>
+        <v>420.3251005436699</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.001166426013397331</v>
+        <v>1.343948560228181</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.03127178538250985</v>
+        <v>0.199818910831123</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>82.28200218393815</v>
+        <v>92.38403096345525</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>2.725613330849107</v>
+        <v>0.6135653587469534</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.2474737337064065</v>
+        <v>0.2063953427297794</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>53.9176011374574</v>
+        <v>143.5429929405527</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>28.57815087275389</v>
+        <v>221.4768751145652</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>0.00899367179015037</v>
+        <v>0.01843001143887841</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.165660560756892</v>
+        <v>4.822632719173765</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>422.7413347911094</v>
+        <v>425.4810859413018</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>11256.24495562093</v>
+        <v>11845.28912700593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1.209337028399427e-05</v>
+        <v>0.00160776405143976</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.01776907303997687</v>
+        <v>34.46014479060602</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>5.940413223012679e-05</v>
+        <v>0.1842152400342887</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.88786547220828e-06</v>
+        <v>1.180325359412346</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>21.21160332736118</v>
+        <v>21.20953759849154</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>10469.63821705305</v>
+        <v>10571.01568671376</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>411.5496342799112</v>
+        <v>411.6276292783912</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>2.477022951710203e-06</v>
+        <v>1.138819851199391</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.001373210018796645</v>
+        <v>0.1511977940633884</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>79.57864531934554</v>
+        <v>85.75614882622274</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.9581804017504721</v>
+        <v>0.4602481521668194</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.09440028330014982</v>
+        <v>0.1340882059330409</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>50.46301412778779</v>
+        <v>104.7784819790233</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>24.83648786555364</v>
+        <v>173.1166331260319</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>0.0003447327816832842</v>
+        <v>0.009564013615460236</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.6452171401394324</v>
+        <v>4.156488769790072</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>407.4632309329454</v>
+        <v>415.4093580420517</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>10827.4594166641</v>
+        <v>10486.85407494568</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>3.557881044224942e-08</v>
+        <v>0.001254941222937134</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>4.481474001109357e-05</v>
+        <v>33.5988893604193</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>8.85773818352457e-07</v>
+        <v>0.1578086178852608</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>5.983375572782279e-10</v>
+        <v>0.8837773427891371</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>21.20735881371241</v>
+        <v>21.20495226866153</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9911.491432864905</v>
+        <v>8817.775722198889</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>403.9202079919522</v>
+        <v>404.3241388919942</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>4.858198739083736e-09</v>
+        <v>1.112784837691732</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>6.421170393832535e-05</v>
+        <v>0.1473546287357596</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>79.00855223120291</v>
+        <v>84.96070966885036</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.5586082403427135</v>
+        <v>0.4250540338753007</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.04555618597189408</v>
+        <v>0.1207798181118226</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>50.24066487026035</v>
+        <v>88.76812785346246</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>24.59146130878567</v>
+        <v>150.7542630868426</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1.26883658281655e-05</v>
+        <v>0.008204021344529648</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.2132925180943564</v>
+        <v>3.982583988300408</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>398.0763371839284</v>
+        <v>400.5879158442328</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>10207.05024669129</v>
+        <v>9191.878650182143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1.072220164507106e-10</v>
+        <v>0.001232288604182167</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.757601481836938e-07</v>
+        <v>33.05178641565517</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1.377331644292212e-08</v>
+        <v>0.1564089122637768</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.448322943057671e-13</v>
+        <v>0.8652908749469752</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>21.19557983300746</v>
+        <v>21.202641977143</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>9303.925225263172</v>
+        <v>7599.843808977643</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>397.3825695532136</v>
+        <v>399.2656602353686</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>9.659871735211679e-12</v>
+        <v>1.100646447047679</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>3.235301726404553e-06</v>
+        <v>0.1468143286499778</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>78.29734989951838</v>
+        <v>84.61946397127734</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.1007143848159465</v>
+        <v>0.4121030399986623</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.0293544919292214</v>
+        <v>0.1146056776995768</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>50.16999566502511</v>
+        <v>81.86867826004429</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>24.59144245882008</v>
+        <v>116.1045435025373</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>5.10658010296113e-07</v>
+        <v>0.007792753830307967</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.08726204305383524</v>
+        <v>3.9391465592298</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>394.3189017126523</v>
+        <v>392.7512823179889</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>9508.869691386795</v>
+        <v>7950.770722086352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>4.246158979981374e-13</v>
+        <v>0.001231793667782566</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>6.039676018569177e-10</v>
+        <v>33.04462634086296</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>5.367830328376992e-10</v>
+        <v>0.1563783132705032</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>0.864997669886064</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>21.19232966831695</v>
+        <v>21.20075123688141</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8637.762344405444</v>
+        <v>6495.292578361909</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>391.9756571860399</v>
+        <v>394.7196289677543</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>2.070661708941252e-14</v>
+        <v>1.094638142762211</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1.575860540429611e-07</v>
+        <v>0.1465686817728931</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>77.26543048779193</v>
+        <v>84.24396346643657</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.00304948075952393</v>
+        <v>0.4113192436279529</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.01340878436546262</v>
+        <v>0.1079366391734027</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>50.1155059695676</v>
+        <v>78.47384115141132</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>23.80201288273479</v>
+        <v>103.2325093138618</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1.775022468268143e-08</v>
+        <v>0.007641995624867152</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>0.04959319652121365</v>
+        <v>3.927542652856618</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>387.5404210394146</v>
+        <v>390.3638875516839</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9045.433532167803</v>
+        <v>6686.537790839223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>8.141635513917814e-16</v>
+        <v>0.001231772671487182</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.164283484437571e-12</v>
+        <v>31.30936222002239</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3.002655901696017e-11</v>
+        <v>0.156377386271656</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>0.8649530380270195</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>21.18915887837031</v>
+        <v>21.19500775154469</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8090.708730354144</v>
+        <v>5813.080222896514</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>387.1377881594946</v>
+        <v>388.3222470904569</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>3.914043937005802e-17</v>
+        <v>1.090536771822812</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>7.193251120677739e-09</v>
+        <v>0.1457050972271712</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>76.87421348257027</v>
+        <v>83.94523284162246</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.0001042136599333017</v>
+        <v>0.4112770400864543</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.000840858151522165</v>
+        <v>0.1070679226088676</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>50.07839675000443</v>
+        <v>75.35441007377111</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>23.80201288262251</v>
+        <v>94.30694145665794</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>6.35938905239423e-10</v>
+        <v>0.007589243616643382</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.03898866557016494</v>
+        <v>3.924577190284831</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>383.0875276218555</v>
+        <v>387.8910412564506</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>8413.719272512833</v>
+        <v>5665.258400075273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>0</v>
+        <v>0.001231771291237638</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.782959048393726e-15</v>
+        <v>31.3093622166598</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1.562690717567724e-12</v>
+        <v>0.1563773575891944</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>0.8649469640424392</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>21.1866959020337</v>
+        <v>21.18857721165969</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7549.337455258691</v>
+        <v>5546.427887361743</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>383.9865977638803</v>
+        <v>386.2056264683679</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>9.106989177366001e-20</v>
+        <v>1.089147006576042</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3.499281753249761e-10</v>
+        <v>0.1331154203826163</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>76.63718846230456</v>
+        <v>83.72282524993166</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>4.63614525492891e-06</v>
+        <v>0.4112678435192799</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.833020309400581e-05</v>
+        <v>0.1069277089811803</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>50.05372531121942</v>
+        <v>73.18753075360301</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>23.78650640857971</v>
+        <v>60.73339696011506</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>2.840480443448238e-11</v>
+        <v>0.007576463728713512</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.03595499418958307</v>
+        <v>3.923750454077989</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>380.9653034888012</v>
+        <v>384.7796733791757</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>7662.215857207789</v>
+        <v>5175.908435698247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>0</v>
+        <v>0.001231771138152423</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0</v>
+        <v>24.86714139691816</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>8.416970824024853e-14</v>
+        <v>0.1563773536471817</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>0.8649461921517753</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>21.1866959020337</v>
+        <v>21.18764326852436</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6663.774785158752</v>
+        <v>5306.007502632891</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>382.3342033246541</v>
+        <v>381.3646490955464</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>1.78509951737431e-22</v>
+        <v>1.088890533840058</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1.587313983956543e-11</v>
+        <v>0.1252752291715312</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>76.39243235738539</v>
+        <v>83.57229668868632</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>2.206880185854724e-07</v>
+        <v>0.4112657490895764</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.876925555421849e-06</v>
+        <v>0.1069068563893742</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>50.02763792501495</v>
+        <v>70.54325932137466</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>23.30834930061171</v>
+        <v>59.07044950126697</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1.089979958142824e-12</v>
+        <v>0.007574248807296399</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>0.03507932050760208</v>
+        <v>3.923549093767909</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>378.7737043937527</v>
+        <v>382.6970827401987</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>6950.524503911229</v>
+        <v>5008.947677781244</v>
       </c>
     </row>
   </sheetData>
